--- a/BuildingSchema/Schema Engineering.xlsx
+++ b/BuildingSchema/Schema Engineering.xlsx
@@ -371,7 +371,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3609" uniqueCount="1197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3619" uniqueCount="1195">
   <si>
     <t>Dimension</t>
   </si>
@@ -3517,7 +3517,7 @@
     <t>Pump Enable Status</t>
   </si>
   <si>
-    <t>Resource&gt;HVAC&gt;AHU</t>
+    <t>Resource&gt;Air</t>
   </si>
   <si>
     <t>Mixed Air</t>
@@ -3529,33 +3529,27 @@
     <t>Return Air</t>
   </si>
   <si>
-    <t>Resource&gt;HVAC&gt;CWS</t>
+    <t>Resource&gt;Water</t>
   </si>
   <si>
     <t>Chilled Water</t>
   </si>
   <si>
-    <t>Resource&gt;HVAC&gt;HWS</t>
-  </si>
-  <si>
     <t>Hot Water</t>
   </si>
   <si>
+    <t>Resource&gt;Water&gt;Hot Water</t>
+  </si>
+  <si>
     <t>Medium Temperature Hot Water</t>
   </si>
   <si>
     <t>High Temperature Hot Water</t>
   </si>
   <si>
-    <t>Resource&gt;HVAC&gt;VAV</t>
-  </si>
-  <si>
     <t>Discharge Air</t>
   </si>
   <si>
-    <t>Resource&gt;Water System</t>
-  </si>
-  <si>
     <t>Deionised Water</t>
   </si>
   <si>
@@ -3565,7 +3559,7 @@
     <t>Very pure water. Used in research labs</t>
   </si>
   <si>
-    <t>Resource&gt;Water System&gt;DomesticHWS</t>
+    <t>Resource&gt;Hot Water</t>
   </si>
   <si>
     <t>Domestic Hot Water</t>
@@ -4093,7 +4087,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -4151,6 +4145,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -8394,7 +8391,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="46.71"/>
     <col customWidth="1" min="2" max="2" width="36.43"/>
-    <col customWidth="1" min="3" max="4" width="26.29"/>
+    <col customWidth="1" min="3" max="3" width="18.0"/>
+    <col customWidth="1" min="4" max="4" width="14.86"/>
     <col customWidth="1" min="5" max="5" width="26.43"/>
     <col customWidth="1" min="6" max="6" width="9.86"/>
     <col customWidth="1" min="7" max="7" width="15.29"/>
@@ -22535,7 +22533,9 @@
         <v>1049</v>
       </c>
       <c r="C567" s="17"/>
-      <c r="D567" s="17"/>
+      <c r="D567" s="21" t="s">
+        <v>23</v>
+      </c>
       <c r="E567" s="4"/>
       <c r="F567" s="5"/>
       <c r="G567" s="5"/>
@@ -22557,7 +22557,9 @@
         <v>1050</v>
       </c>
       <c r="C568" s="17"/>
-      <c r="D568" s="17"/>
+      <c r="D568" s="21" t="s">
+        <v>23</v>
+      </c>
       <c r="E568" s="4"/>
       <c r="F568" s="5"/>
       <c r="G568" s="5"/>
@@ -22579,7 +22581,9 @@
         <v>1051</v>
       </c>
       <c r="C569" s="17"/>
-      <c r="D569" s="17"/>
+      <c r="D569" s="21" t="s">
+        <v>23</v>
+      </c>
       <c r="E569" s="4"/>
       <c r="F569" s="5"/>
       <c r="G569" s="5"/>
@@ -22601,7 +22605,9 @@
         <v>1053</v>
       </c>
       <c r="C570" s="17"/>
-      <c r="D570" s="17"/>
+      <c r="D570" s="21" t="s">
+        <v>412</v>
+      </c>
       <c r="E570" s="4"/>
       <c r="F570" s="5"/>
       <c r="G570" s="5"/>
@@ -22617,13 +22623,15 @@
     </row>
     <row r="571">
       <c r="A571" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B571" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="B571" s="1" t="s">
-        <v>1055</v>
-      </c>
       <c r="C571" s="17"/>
-      <c r="D571" s="17"/>
+      <c r="D571" s="21" t="s">
+        <v>414</v>
+      </c>
       <c r="E571" s="4"/>
       <c r="F571" s="5"/>
       <c r="G571" s="5"/>
@@ -22639,13 +22647,15 @@
     </row>
     <row r="572">
       <c r="A572" s="1" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B572" s="1" t="s">
         <v>1056</v>
       </c>
       <c r="C572" s="17"/>
-      <c r="D572" s="17"/>
+      <c r="D572" s="21" t="s">
+        <v>414</v>
+      </c>
       <c r="E572" s="4"/>
       <c r="F572" s="5"/>
       <c r="G572" s="5"/>
@@ -22661,13 +22671,15 @@
     </row>
     <row r="573">
       <c r="A573" s="1" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B573" s="1" t="s">
         <v>1057</v>
       </c>
       <c r="C573" s="17"/>
-      <c r="D573" s="17"/>
+      <c r="D573" s="21" t="s">
+        <v>414</v>
+      </c>
       <c r="E573" s="4"/>
       <c r="F573" s="5"/>
       <c r="G573" s="5"/>
@@ -22683,13 +22695,15 @@
     </row>
     <row r="574">
       <c r="A574" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B574" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="B574" s="1" t="s">
-        <v>1059</v>
-      </c>
       <c r="C574" s="12"/>
-      <c r="D574" s="12"/>
+      <c r="D574" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="E574" s="4"/>
       <c r="F574" s="5"/>
       <c r="G574" s="5"/>
@@ -22703,18 +22717,20 @@
     </row>
     <row r="575">
       <c r="A575" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C575" s="12"/>
+      <c r="D575" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="E575" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="B575" s="1" t="s">
+      <c r="F575" s="1" t="s">
         <v>1061</v>
-      </c>
-      <c r="C575" s="12"/>
-      <c r="D575" s="12"/>
-      <c r="E575" s="1" t="s">
-        <v>1062</v>
-      </c>
-      <c r="F575" s="1" t="s">
-        <v>1063</v>
       </c>
       <c r="G575" s="5"/>
       <c r="H575" s="5"/>
@@ -22729,13 +22745,15 @@
     </row>
     <row r="576">
       <c r="A576" s="1" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="C576" s="12"/>
-      <c r="D576" s="12"/>
+      <c r="D576" s="15" t="s">
+        <v>660</v>
+      </c>
       <c r="E576" s="4"/>
       <c r="F576" s="5"/>
       <c r="G576" s="5"/>
@@ -22798,15 +22816,15 @@
       <c r="E583" s="3"/>
     </row>
     <row r="584">
-      <c r="A584" s="21"/>
+      <c r="A584" s="22"/>
       <c r="B584" s="7"/>
       <c r="C584" s="7"/>
       <c r="D584" s="7"/>
       <c r="E584" s="7"/>
       <c r="F584" s="7"/>
       <c r="G584" s="7"/>
-      <c r="H584" s="22"/>
-      <c r="I584" s="22"/>
+      <c r="H584" s="23"/>
+      <c r="I584" s="23"/>
       <c r="J584" s="7"/>
       <c r="K584" s="7"/>
       <c r="L584" s="7"/>
@@ -22869,7 +22887,7 @@
       <c r="I590" s="3"/>
     </row>
     <row r="591">
-      <c r="A591" s="23"/>
+      <c r="A591" s="24"/>
       <c r="B591" s="14"/>
       <c r="C591" s="14"/>
       <c r="D591" s="14"/>
@@ -22932,7 +22950,7 @@
       <c r="I595" s="3"/>
     </row>
     <row r="596">
-      <c r="A596" s="24"/>
+      <c r="A596" s="25"/>
       <c r="B596" s="14"/>
       <c r="C596" s="14"/>
       <c r="D596" s="14"/>
@@ -23004,7 +23022,7 @@
       <c r="E600" s="3"/>
     </row>
     <row r="601">
-      <c r="A601" s="23"/>
+      <c r="A601" s="24"/>
       <c r="B601" s="14"/>
       <c r="C601" s="14"/>
       <c r="D601" s="14"/>
@@ -23098,7 +23116,7 @@
       <c r="I606" s="3"/>
     </row>
     <row r="607">
-      <c r="A607" s="23"/>
+      <c r="A607" s="24"/>
       <c r="B607" s="14"/>
       <c r="C607" s="14"/>
       <c r="D607" s="14"/>
@@ -23148,15 +23166,15 @@
       <c r="D609" s="8"/>
     </row>
     <row r="610">
-      <c r="A610" s="21"/>
+      <c r="A610" s="22"/>
       <c r="B610" s="7"/>
       <c r="C610" s="7"/>
       <c r="D610" s="7"/>
       <c r="E610" s="7"/>
       <c r="F610" s="7"/>
       <c r="G610" s="7"/>
-      <c r="H610" s="22"/>
-      <c r="I610" s="22"/>
+      <c r="H610" s="23"/>
+      <c r="I610" s="23"/>
       <c r="J610" s="7"/>
       <c r="K610" s="7"/>
       <c r="L610" s="7"/>
@@ -23201,7 +23219,7 @@
       <c r="D613" s="8"/>
     </row>
     <row r="614">
-      <c r="A614" s="23"/>
+      <c r="A614" s="24"/>
       <c r="B614" s="14"/>
       <c r="C614" s="14"/>
       <c r="D614" s="14"/>
@@ -23277,7 +23295,7 @@
       <c r="D620" s="8"/>
     </row>
     <row r="621">
-      <c r="A621" s="23"/>
+      <c r="A621" s="24"/>
       <c r="B621" s="14"/>
       <c r="C621" s="14"/>
       <c r="D621" s="14"/>
@@ -23351,43 +23369,43 @@
       <c r="I626" s="3"/>
     </row>
     <row r="627">
-      <c r="A627" s="23"/>
-      <c r="B627" s="25"/>
+      <c r="A627" s="24"/>
+      <c r="B627" s="26"/>
       <c r="C627" s="14"/>
       <c r="D627" s="14"/>
-      <c r="E627" s="25"/>
-      <c r="F627" s="25"/>
-      <c r="G627" s="25"/>
-      <c r="H627" s="25"/>
-      <c r="I627" s="25"/>
-      <c r="J627" s="25"/>
-      <c r="K627" s="25"/>
-      <c r="L627" s="25"/>
-      <c r="M627" s="25"/>
-      <c r="N627" s="25"/>
-      <c r="O627" s="25"/>
-      <c r="P627" s="25"/>
-      <c r="Q627" s="25"/>
-      <c r="R627" s="25"/>
-      <c r="S627" s="25"/>
-      <c r="T627" s="25"/>
-      <c r="U627" s="25"/>
-      <c r="V627" s="25"/>
-      <c r="W627" s="25"/>
-      <c r="X627" s="25"/>
-      <c r="Y627" s="25"/>
-      <c r="Z627" s="25"/>
-      <c r="AA627" s="25"/>
-      <c r="AB627" s="25"/>
-      <c r="AC627" s="25"/>
-      <c r="AD627" s="25"/>
-      <c r="AE627" s="25"/>
-      <c r="AF627" s="25"/>
-      <c r="AG627" s="25"/>
-      <c r="AH627" s="25"/>
-      <c r="AI627" s="25"/>
-      <c r="AJ627" s="25"/>
-      <c r="AK627" s="25"/>
+      <c r="E627" s="26"/>
+      <c r="F627" s="26"/>
+      <c r="G627" s="26"/>
+      <c r="H627" s="26"/>
+      <c r="I627" s="26"/>
+      <c r="J627" s="26"/>
+      <c r="K627" s="26"/>
+      <c r="L627" s="26"/>
+      <c r="M627" s="26"/>
+      <c r="N627" s="26"/>
+      <c r="O627" s="26"/>
+      <c r="P627" s="26"/>
+      <c r="Q627" s="26"/>
+      <c r="R627" s="26"/>
+      <c r="S627" s="26"/>
+      <c r="T627" s="26"/>
+      <c r="U627" s="26"/>
+      <c r="V627" s="26"/>
+      <c r="W627" s="26"/>
+      <c r="X627" s="26"/>
+      <c r="Y627" s="26"/>
+      <c r="Z627" s="26"/>
+      <c r="AA627" s="26"/>
+      <c r="AB627" s="26"/>
+      <c r="AC627" s="26"/>
+      <c r="AD627" s="26"/>
+      <c r="AE627" s="26"/>
+      <c r="AF627" s="26"/>
+      <c r="AG627" s="26"/>
+      <c r="AH627" s="26"/>
+      <c r="AI627" s="26"/>
+      <c r="AJ627" s="26"/>
+      <c r="AK627" s="26"/>
     </row>
     <row r="628">
       <c r="A628" s="3"/>
@@ -23429,43 +23447,43 @@
       <c r="D633" s="8"/>
     </row>
     <row r="634">
-      <c r="A634" s="23"/>
-      <c r="B634" s="25"/>
+      <c r="A634" s="24"/>
+      <c r="B634" s="26"/>
       <c r="C634" s="14"/>
       <c r="D634" s="14"/>
-      <c r="E634" s="25"/>
-      <c r="F634" s="25"/>
-      <c r="G634" s="25"/>
-      <c r="H634" s="25"/>
-      <c r="I634" s="25"/>
-      <c r="J634" s="25"/>
-      <c r="K634" s="25"/>
-      <c r="L634" s="25"/>
-      <c r="M634" s="25"/>
-      <c r="N634" s="25"/>
-      <c r="O634" s="25"/>
-      <c r="P634" s="25"/>
-      <c r="Q634" s="25"/>
-      <c r="R634" s="25"/>
-      <c r="S634" s="25"/>
-      <c r="T634" s="25"/>
-      <c r="U634" s="25"/>
-      <c r="V634" s="25"/>
-      <c r="W634" s="25"/>
-      <c r="X634" s="25"/>
-      <c r="Y634" s="25"/>
-      <c r="Z634" s="25"/>
-      <c r="AA634" s="25"/>
-      <c r="AB634" s="25"/>
-      <c r="AC634" s="25"/>
-      <c r="AD634" s="25"/>
-      <c r="AE634" s="25"/>
-      <c r="AF634" s="25"/>
-      <c r="AG634" s="25"/>
-      <c r="AH634" s="25"/>
-      <c r="AI634" s="25"/>
-      <c r="AJ634" s="25"/>
-      <c r="AK634" s="25"/>
+      <c r="E634" s="26"/>
+      <c r="F634" s="26"/>
+      <c r="G634" s="26"/>
+      <c r="H634" s="26"/>
+      <c r="I634" s="26"/>
+      <c r="J634" s="26"/>
+      <c r="K634" s="26"/>
+      <c r="L634" s="26"/>
+      <c r="M634" s="26"/>
+      <c r="N634" s="26"/>
+      <c r="O634" s="26"/>
+      <c r="P634" s="26"/>
+      <c r="Q634" s="26"/>
+      <c r="R634" s="26"/>
+      <c r="S634" s="26"/>
+      <c r="T634" s="26"/>
+      <c r="U634" s="26"/>
+      <c r="V634" s="26"/>
+      <c r="W634" s="26"/>
+      <c r="X634" s="26"/>
+      <c r="Y634" s="26"/>
+      <c r="Z634" s="26"/>
+      <c r="AA634" s="26"/>
+      <c r="AB634" s="26"/>
+      <c r="AC634" s="26"/>
+      <c r="AD634" s="26"/>
+      <c r="AE634" s="26"/>
+      <c r="AF634" s="26"/>
+      <c r="AG634" s="26"/>
+      <c r="AH634" s="26"/>
+      <c r="AI634" s="26"/>
+      <c r="AJ634" s="26"/>
+      <c r="AK634" s="26"/>
     </row>
     <row r="635">
       <c r="A635" s="3"/>
@@ -27270,32 +27288,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="27" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="28" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="26" t="s">
+      <c r="B3" s="29" t="s">
         <v>1067</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="27" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>1069</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
@@ -27339,11 +27357,11 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="27" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>1071</v>
+      <c r="A8" s="28" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>1069</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
@@ -27403,28 +27421,28 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>1072</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="D2" s="27" t="s">
         <v>1073</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="27" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="2"/>
@@ -27451,10 +27469,10 @@
       <c r="AD2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="29" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B3" s="30"/>
+      <c r="A3" s="30" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B3" s="31"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -27488,14 +27506,14 @@
       <c r="A4" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>1077</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>1079</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>14</v>
@@ -27505,8 +27523,8 @@
       <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="32" t="s">
-        <v>1078</v>
+      <c r="C5" s="33" t="s">
+        <v>1076</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>14</v>
@@ -27514,206 +27532,206 @@
     </row>
     <row r="6">
       <c r="A6" s="3"/>
-      <c r="B6" s="31"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="3"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="34" t="s">
         <v>355</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="35"/>
-      <c r="AD7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="36"/>
+      <c r="AC7" s="36"/>
+      <c r="AD7" s="36"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B8" s="31"/>
+        <v>1078</v>
+      </c>
+      <c r="B8" s="32"/>
       <c r="C8" s="3"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="3"/>
-      <c r="B9" s="31"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="3"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="35"/>
-      <c r="AC10" s="35"/>
-      <c r="AD10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="36"/>
+      <c r="AB10" s="36"/>
+      <c r="AC10" s="36"/>
+      <c r="AD10" s="36"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B11" s="31"/>
+        <v>1078</v>
+      </c>
+      <c r="B11" s="32"/>
       <c r="C11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="3"/>
-      <c r="B12" s="31"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="3"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="34" t="s">
         <v>356</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="35"/>
-      <c r="AC13" s="35"/>
-      <c r="AD13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="36"/>
+      <c r="AC13" s="36"/>
+      <c r="AD13" s="36"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B14" s="31"/>
+        <v>1078</v>
+      </c>
+      <c r="B14" s="32"/>
       <c r="C14" s="3"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" s="3"/>
-      <c r="B15" s="31"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16">
-      <c r="A16" s="33" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="35"/>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="35"/>
-      <c r="AD16" s="35"/>
+      <c r="A16" s="34" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B16" s="35"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="36"/>
+      <c r="AC16" s="36"/>
+      <c r="AD16" s="36"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>1081</v>
+        <v>1080</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>1079</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>780</v>
       </c>
       <c r="E17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3"/>
-      <c r="B18" s="31"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="3" t="s">
         <v>945</v>
       </c>
@@ -27721,7 +27739,7 @@
     </row>
     <row r="19">
       <c r="A19" s="3"/>
-      <c r="B19" s="31"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="15" t="s">
         <v>940</v>
       </c>
@@ -27729,7 +27747,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3"/>
-      <c r="B20" s="31"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="15" t="s">
         <v>779</v>
       </c>
@@ -27737,7 +27755,7 @@
     </row>
     <row r="21">
       <c r="A21" s="3"/>
-      <c r="B21" s="31"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="15" t="s">
         <v>926</v>
       </c>
@@ -27745,7 +27763,7 @@
     </row>
     <row r="22">
       <c r="A22" s="3"/>
-      <c r="B22" s="31"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="15" t="s">
         <v>925</v>
       </c>
@@ -27753,23 +27771,23 @@
     </row>
     <row r="23">
       <c r="A23" s="3"/>
-      <c r="B23" s="31"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="15" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24">
       <c r="A24" s="3"/>
-      <c r="B24" s="31"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="15" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="E24" s="3"/>
     </row>
     <row r="25">
       <c r="A25" s="3"/>
-      <c r="B25" s="31"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="15" t="s">
         <v>1027</v>
       </c>
@@ -27777,7 +27795,7 @@
     </row>
     <row r="26">
       <c r="A26" s="3"/>
-      <c r="B26" s="31"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="12" t="s">
         <v>630</v>
       </c>
@@ -27785,7 +27803,7 @@
     </row>
     <row r="27">
       <c r="A27" s="3"/>
-      <c r="B27" s="31"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="3" t="s">
         <v>627</v>
       </c>
@@ -27793,7 +27811,7 @@
     </row>
     <row r="28">
       <c r="A28" s="3"/>
-      <c r="B28" s="31"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="12" t="s">
         <v>73</v>
       </c>
@@ -27801,7 +27819,7 @@
     </row>
     <row r="29">
       <c r="A29" s="3"/>
-      <c r="B29" s="31"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="12" t="s">
         <v>923</v>
       </c>
@@ -27809,63 +27827,63 @@
     </row>
     <row r="30">
       <c r="A30" s="3"/>
-      <c r="B30" s="31"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="15" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E30" s="3"/>
     </row>
     <row r="31">
       <c r="A31" s="3"/>
-      <c r="B31" s="31"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="15" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="E31" s="3"/>
     </row>
     <row r="32">
       <c r="A32" s="3"/>
-      <c r="B32" s="31"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="15" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E32" s="3"/>
     </row>
     <row r="33">
       <c r="A33" s="3"/>
-      <c r="B33" s="31"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="15" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="E33" s="3"/>
     </row>
     <row r="34">
       <c r="A34" s="3"/>
-      <c r="B34" s="31"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="3" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="E34" s="3"/>
     </row>
     <row r="35">
       <c r="A35" s="3"/>
-      <c r="B35" s="31"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="15" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="E35" s="3"/>
     </row>
     <row r="36">
       <c r="A36" s="3"/>
-      <c r="B36" s="31"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="3" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E36" s="3"/>
     </row>
     <row r="37">
       <c r="A37" s="3"/>
-      <c r="B37" s="31"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="12" t="s">
         <v>626</v>
       </c>
@@ -27873,7 +27891,7 @@
     </row>
     <row r="38">
       <c r="A38" s="3"/>
-      <c r="B38" s="31"/>
+      <c r="B38" s="32"/>
       <c r="C38" s="12" t="s">
         <v>623</v>
       </c>
@@ -27881,7 +27899,7 @@
     </row>
     <row r="39">
       <c r="A39" s="3"/>
-      <c r="B39" s="31"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="15" t="s">
         <v>628</v>
       </c>
@@ -27889,7 +27907,7 @@
     </row>
     <row r="40">
       <c r="A40" s="3"/>
-      <c r="B40" s="31"/>
+      <c r="B40" s="32"/>
       <c r="C40" s="12" t="s">
         <v>782</v>
       </c>
@@ -27897,7 +27915,7 @@
     </row>
     <row r="41">
       <c r="A41" s="3"/>
-      <c r="B41" s="31"/>
+      <c r="B41" s="32"/>
       <c r="C41" s="12" t="s">
         <v>624</v>
       </c>
@@ -27905,7 +27923,7 @@
     </row>
     <row r="42">
       <c r="A42" s="3"/>
-      <c r="B42" s="31"/>
+      <c r="B42" s="32"/>
       <c r="C42" s="15" t="s">
         <v>775</v>
       </c>
@@ -27913,7 +27931,7 @@
     </row>
     <row r="43">
       <c r="A43" s="3"/>
-      <c r="B43" s="31"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="3" t="s">
         <v>621</v>
       </c>
@@ -27921,7 +27939,7 @@
     </row>
     <row r="44">
       <c r="A44" s="3"/>
-      <c r="B44" s="31"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="3" t="s">
         <v>622</v>
       </c>
@@ -27929,7 +27947,7 @@
     </row>
     <row r="45">
       <c r="A45" s="3"/>
-      <c r="B45" s="31"/>
+      <c r="B45" s="32"/>
       <c r="C45" s="15" t="s">
         <v>774</v>
       </c>
@@ -27937,7 +27955,7 @@
     </row>
     <row r="46">
       <c r="A46" s="3"/>
-      <c r="B46" s="31"/>
+      <c r="B46" s="32"/>
       <c r="C46" s="15" t="s">
         <v>315</v>
       </c>
@@ -27945,7 +27963,7 @@
     </row>
     <row r="47">
       <c r="A47" s="3"/>
-      <c r="B47" s="31"/>
+      <c r="B47" s="32"/>
       <c r="C47" s="15" t="s">
         <v>522</v>
       </c>
@@ -27953,116 +27971,116 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B48" s="31" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C48" s="36" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B48" s="32" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C48" s="37" t="s">
         <v>523</v>
       </c>
       <c r="E48" s="3"/>
     </row>
     <row r="49">
       <c r="A49" s="3"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="36" t="s">
+      <c r="B49" s="32"/>
+      <c r="C49" s="37" t="s">
         <v>984</v>
       </c>
       <c r="E49" s="3"/>
     </row>
     <row r="50">
       <c r="A50" s="3"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="36" t="s">
+      <c r="B50" s="32"/>
+      <c r="C50" s="37" t="s">
         <v>982</v>
       </c>
       <c r="E50" s="3"/>
     </row>
     <row r="51">
       <c r="A51" s="3"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="36" t="s">
+      <c r="B51" s="32"/>
+      <c r="C51" s="37" t="s">
         <v>760</v>
       </c>
       <c r="E51" s="3"/>
     </row>
     <row r="52">
       <c r="A52" s="3"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="36" t="s">
+      <c r="B52" s="32"/>
+      <c r="C52" s="37" t="s">
         <v>579</v>
       </c>
       <c r="E52" s="3"/>
     </row>
     <row r="53">
       <c r="A53" s="3"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="36" t="s">
+      <c r="B53" s="32"/>
+      <c r="C53" s="37" t="s">
         <v>440</v>
       </c>
       <c r="E53" s="3"/>
     </row>
     <row r="54">
       <c r="A54" s="3"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="36" t="s">
-        <v>1094</v>
+      <c r="B54" s="32"/>
+      <c r="C54" s="37" t="s">
+        <v>1092</v>
       </c>
       <c r="E54" s="3"/>
     </row>
     <row r="55">
       <c r="A55" s="3"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="36" t="s">
-        <v>1095</v>
+      <c r="B55" s="32"/>
+      <c r="C55" s="37" t="s">
+        <v>1093</v>
       </c>
       <c r="E55" s="3"/>
     </row>
     <row r="56">
       <c r="A56" s="3"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="36" t="s">
-        <v>1096</v>
+      <c r="B56" s="32"/>
+      <c r="C56" s="37" t="s">
+        <v>1094</v>
       </c>
       <c r="E56" s="3"/>
     </row>
     <row r="57">
       <c r="A57" s="3"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="36" t="s">
-        <v>1097</v>
+      <c r="B57" s="32"/>
+      <c r="C57" s="37" t="s">
+        <v>1095</v>
       </c>
       <c r="E57" s="3"/>
     </row>
     <row r="58">
       <c r="A58" s="3"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="36" t="s">
-        <v>1098</v>
+      <c r="B58" s="32"/>
+      <c r="C58" s="37" t="s">
+        <v>1096</v>
       </c>
       <c r="E58" s="3"/>
     </row>
     <row r="59">
       <c r="A59" s="3"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="36" t="s">
-        <v>1099</v>
+      <c r="B59" s="32"/>
+      <c r="C59" s="37" t="s">
+        <v>1097</v>
       </c>
       <c r="E59" s="3"/>
     </row>
     <row r="60">
       <c r="A60" s="3"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="36" t="s">
+      <c r="B60" s="32"/>
+      <c r="C60" s="37" t="s">
         <v>817</v>
       </c>
       <c r="E60" s="3"/>
     </row>
     <row r="61">
       <c r="A61" s="3"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="36" t="s">
+      <c r="B61" s="32"/>
+      <c r="C61" s="37" t="s">
         <v>715</v>
       </c>
       <c r="E61" s="3"/>
@@ -28071,8 +28089,8 @@
       <c r="A62" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B62" s="31" t="s">
-        <v>1081</v>
+      <c r="B62" s="32" t="s">
+        <v>1079</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>481</v>
@@ -28081,7 +28099,7 @@
     </row>
     <row r="63">
       <c r="A63" s="3"/>
-      <c r="B63" s="31"/>
+      <c r="B63" s="32"/>
       <c r="C63" s="3" t="s">
         <v>638</v>
       </c>
@@ -28089,7 +28107,7 @@
     </row>
     <row r="64">
       <c r="A64" s="3"/>
-      <c r="B64" s="31"/>
+      <c r="B64" s="32"/>
       <c r="C64" s="3" t="s">
         <v>640</v>
       </c>
@@ -28097,7 +28115,7 @@
     </row>
     <row r="65">
       <c r="A65" s="3"/>
-      <c r="B65" s="31"/>
+      <c r="B65" s="32"/>
       <c r="C65" s="3" t="s">
         <v>482</v>
       </c>
@@ -28105,47 +28123,47 @@
     </row>
     <row r="66">
       <c r="A66" s="3"/>
-      <c r="B66" s="31"/>
+      <c r="B66" s="32"/>
       <c r="C66" s="3" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="E66" s="3"/>
     </row>
     <row r="67">
       <c r="A67" s="3"/>
-      <c r="B67" s="31"/>
+      <c r="B67" s="32"/>
       <c r="C67" s="3" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="E67" s="3"/>
     </row>
     <row r="68">
       <c r="A68" s="3"/>
-      <c r="B68" s="31"/>
+      <c r="B68" s="32"/>
       <c r="C68" s="3" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="E68" s="3"/>
     </row>
     <row r="69">
       <c r="A69" s="3"/>
-      <c r="B69" s="31"/>
+      <c r="B69" s="32"/>
       <c r="C69" s="3" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="E69" s="3"/>
     </row>
     <row r="70">
       <c r="A70" s="3"/>
-      <c r="B70" s="31"/>
+      <c r="B70" s="32"/>
       <c r="C70" s="3" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="E70" s="3"/>
     </row>
     <row r="71">
       <c r="A71" s="3"/>
-      <c r="B71" s="31"/>
+      <c r="B71" s="32"/>
       <c r="C71" s="3" t="s">
         <v>641</v>
       </c>
@@ -28153,15 +28171,15 @@
     </row>
     <row r="72">
       <c r="A72" s="3"/>
-      <c r="B72" s="31"/>
+      <c r="B72" s="32"/>
       <c r="C72" s="3" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="E72" s="3"/>
     </row>
     <row r="73">
       <c r="A73" s="3"/>
-      <c r="B73" s="31"/>
+      <c r="B73" s="32"/>
       <c r="C73" s="3" t="s">
         <v>648</v>
       </c>
@@ -28169,7 +28187,7 @@
     </row>
     <row r="74">
       <c r="A74" s="3"/>
-      <c r="B74" s="31"/>
+      <c r="B74" s="32"/>
       <c r="C74" s="3" t="s">
         <v>478</v>
       </c>
@@ -28177,7 +28195,7 @@
     </row>
     <row r="75">
       <c r="A75" s="3"/>
-      <c r="B75" s="31"/>
+      <c r="B75" s="32"/>
       <c r="C75" s="3" t="s">
         <v>642</v>
       </c>
@@ -28185,7 +28203,7 @@
     </row>
     <row r="76">
       <c r="A76" s="3"/>
-      <c r="B76" s="31"/>
+      <c r="B76" s="32"/>
       <c r="C76" s="3" t="s">
         <v>1037</v>
       </c>
@@ -28193,23 +28211,23 @@
     </row>
     <row r="77">
       <c r="A77" s="3"/>
-      <c r="B77" s="31"/>
+      <c r="B77" s="32"/>
       <c r="C77" s="3" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="E77" s="3"/>
     </row>
     <row r="78">
       <c r="A78" s="3"/>
-      <c r="B78" s="31"/>
+      <c r="B78" s="32"/>
       <c r="C78" s="3" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="E78" s="3"/>
     </row>
     <row r="79">
       <c r="A79" s="3"/>
-      <c r="B79" s="31"/>
+      <c r="B79" s="32"/>
       <c r="C79" s="3" t="s">
         <v>300</v>
       </c>
@@ -28217,7 +28235,7 @@
     </row>
     <row r="80">
       <c r="A80" s="3"/>
-      <c r="B80" s="31"/>
+      <c r="B80" s="32"/>
       <c r="C80" s="3" t="s">
         <v>479</v>
       </c>
@@ -28225,7 +28243,7 @@
     </row>
     <row r="81">
       <c r="A81" s="3"/>
-      <c r="B81" s="31"/>
+      <c r="B81" s="32"/>
       <c r="C81" s="3" t="s">
         <v>470</v>
       </c>
@@ -28233,23 +28251,23 @@
     </row>
     <row r="82">
       <c r="A82" s="3"/>
-      <c r="B82" s="31"/>
+      <c r="B82" s="32"/>
       <c r="C82" s="3" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="E82" s="3"/>
     </row>
     <row r="83">
       <c r="A83" s="3"/>
-      <c r="B83" s="31"/>
+      <c r="B83" s="32"/>
       <c r="C83" s="3" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E83" s="3"/>
     </row>
     <row r="84">
       <c r="A84" s="3"/>
-      <c r="B84" s="31"/>
+      <c r="B84" s="32"/>
       <c r="C84" s="3" t="s">
         <v>1034</v>
       </c>
@@ -28257,7 +28275,7 @@
     </row>
     <row r="85">
       <c r="A85" s="3"/>
-      <c r="B85" s="31"/>
+      <c r="B85" s="32"/>
       <c r="C85" s="3" t="s">
         <v>472</v>
       </c>
@@ -28265,7 +28283,7 @@
     </row>
     <row r="86">
       <c r="A86" s="3"/>
-      <c r="B86" s="31"/>
+      <c r="B86" s="32"/>
       <c r="C86" s="3" t="s">
         <v>653</v>
       </c>
@@ -28273,7 +28291,7 @@
     </row>
     <row r="87">
       <c r="A87" s="3"/>
-      <c r="B87" s="31"/>
+      <c r="B87" s="32"/>
       <c r="C87" s="3" t="s">
         <v>1041</v>
       </c>
@@ -28281,7 +28299,7 @@
     </row>
     <row r="88">
       <c r="A88" s="3"/>
-      <c r="B88" s="31"/>
+      <c r="B88" s="32"/>
       <c r="C88" s="3" t="s">
         <v>1029</v>
       </c>
@@ -28289,7 +28307,7 @@
     </row>
     <row r="89">
       <c r="A89" s="3"/>
-      <c r="B89" s="31"/>
+      <c r="B89" s="32"/>
       <c r="C89" s="3" t="s">
         <v>474</v>
       </c>
@@ -28297,7 +28315,7 @@
     </row>
     <row r="90">
       <c r="A90" s="3"/>
-      <c r="B90" s="31"/>
+      <c r="B90" s="32"/>
       <c r="C90" s="3" t="s">
         <v>477</v>
       </c>
@@ -28305,7 +28323,7 @@
     </row>
     <row r="91">
       <c r="A91" s="3"/>
-      <c r="B91" s="31"/>
+      <c r="B91" s="32"/>
       <c r="C91" s="3" t="s">
         <v>632</v>
       </c>
@@ -28313,15 +28331,15 @@
     </row>
     <row r="92">
       <c r="A92" s="3"/>
-      <c r="B92" s="31"/>
+      <c r="B92" s="32"/>
       <c r="C92" s="3" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="E92" s="3"/>
     </row>
     <row r="93">
       <c r="A93" s="3"/>
-      <c r="B93" s="31"/>
+      <c r="B93" s="32"/>
       <c r="C93" s="3" t="s">
         <v>555</v>
       </c>
@@ -28329,15 +28347,15 @@
     </row>
     <row r="94">
       <c r="A94" s="3"/>
-      <c r="B94" s="31"/>
+      <c r="B94" s="32"/>
       <c r="C94" s="3" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="E94" s="3"/>
     </row>
     <row r="95">
       <c r="A95" s="3"/>
-      <c r="B95" s="31"/>
+      <c r="B95" s="32"/>
       <c r="C95" s="3" t="s">
         <v>484</v>
       </c>
@@ -28345,9 +28363,9 @@
     </row>
     <row r="96">
       <c r="A96" s="3"/>
-      <c r="B96" s="31"/>
+      <c r="B96" s="32"/>
       <c r="C96" s="3" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="E96" s="3"/>
     </row>
@@ -28355,138 +28373,138 @@
       <c r="A97" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B97" s="31" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C97" s="36" t="s">
+      <c r="B97" s="32" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C97" s="37" t="s">
         <v>604</v>
       </c>
       <c r="E97" s="3"/>
     </row>
     <row r="98">
       <c r="A98" s="3"/>
-      <c r="B98" s="31"/>
-      <c r="C98" s="36" t="s">
+      <c r="B98" s="32"/>
+      <c r="C98" s="37" t="s">
         <v>891</v>
       </c>
       <c r="E98" s="3"/>
     </row>
     <row r="99">
       <c r="A99" s="3"/>
-      <c r="B99" s="31"/>
-      <c r="C99" s="36" t="s">
+      <c r="B99" s="32"/>
+      <c r="C99" s="37" t="s">
         <v>890</v>
       </c>
       <c r="E99" s="3"/>
     </row>
     <row r="100">
       <c r="A100" s="3"/>
-      <c r="B100" s="31"/>
-      <c r="C100" s="36" t="s">
+      <c r="B100" s="32"/>
+      <c r="C100" s="37" t="s">
         <v>746</v>
       </c>
       <c r="E100" s="3"/>
     </row>
     <row r="101">
       <c r="A101" s="3"/>
-      <c r="B101" s="31"/>
-      <c r="C101" s="37" t="s">
+      <c r="B101" s="32"/>
+      <c r="C101" s="38" t="s">
         <v>132</v>
       </c>
       <c r="E101" s="3"/>
     </row>
     <row r="102">
       <c r="A102" s="3"/>
-      <c r="B102" s="31"/>
-      <c r="C102" s="36" t="s">
-        <v>1113</v>
+      <c r="B102" s="32"/>
+      <c r="C102" s="37" t="s">
+        <v>1111</v>
       </c>
       <c r="E102" s="3"/>
     </row>
     <row r="103">
       <c r="A103" s="3"/>
-      <c r="B103" s="31"/>
-      <c r="C103" s="36" t="s">
-        <v>1114</v>
+      <c r="B103" s="32"/>
+      <c r="C103" s="37" t="s">
+        <v>1112</v>
       </c>
       <c r="E103" s="3"/>
     </row>
     <row r="104">
       <c r="A104" s="3"/>
-      <c r="B104" s="31"/>
-      <c r="C104" s="36" t="s">
-        <v>1115</v>
+      <c r="B104" s="32"/>
+      <c r="C104" s="37" t="s">
+        <v>1113</v>
       </c>
       <c r="E104" s="3"/>
     </row>
     <row r="105">
       <c r="A105" s="3"/>
-      <c r="B105" s="31"/>
-      <c r="C105" s="36" t="s">
-        <v>1116</v>
+      <c r="B105" s="32"/>
+      <c r="C105" s="37" t="s">
+        <v>1114</v>
       </c>
       <c r="E105" s="3"/>
     </row>
     <row r="106">
       <c r="A106" s="3"/>
-      <c r="B106" s="31"/>
-      <c r="C106" s="37" t="s">
+      <c r="B106" s="32"/>
+      <c r="C106" s="38" t="s">
         <v>496</v>
       </c>
       <c r="E106" s="3"/>
     </row>
     <row r="107">
       <c r="A107" s="3"/>
-      <c r="B107" s="31"/>
-      <c r="C107" s="37" t="s">
+      <c r="B107" s="32"/>
+      <c r="C107" s="38" t="s">
         <v>134</v>
       </c>
       <c r="E107" s="3"/>
     </row>
     <row r="108">
       <c r="A108" s="3"/>
-      <c r="B108" s="31"/>
-      <c r="C108" s="36" t="s">
-        <v>1117</v>
+      <c r="B108" s="32"/>
+      <c r="C108" s="37" t="s">
+        <v>1115</v>
       </c>
       <c r="E108" s="3"/>
     </row>
     <row r="109">
       <c r="A109" s="3"/>
-      <c r="B109" s="31"/>
-      <c r="C109" s="36" t="s">
+      <c r="B109" s="32"/>
+      <c r="C109" s="37" t="s">
         <v>494</v>
       </c>
       <c r="E109" s="3"/>
     </row>
     <row r="110">
       <c r="A110" s="3"/>
-      <c r="B110" s="31"/>
-      <c r="C110" s="36" t="s">
-        <v>1118</v>
+      <c r="B110" s="32"/>
+      <c r="C110" s="37" t="s">
+        <v>1116</v>
       </c>
       <c r="E110" s="3"/>
     </row>
     <row r="111">
       <c r="A111" s="3"/>
-      <c r="B111" s="31"/>
-      <c r="C111" s="36" t="s">
+      <c r="B111" s="32"/>
+      <c r="C111" s="37" t="s">
         <v>497</v>
       </c>
       <c r="E111" s="3"/>
     </row>
     <row r="112">
       <c r="A112" s="3"/>
-      <c r="B112" s="31"/>
-      <c r="C112" s="36" t="s">
+      <c r="B112" s="32"/>
+      <c r="C112" s="37" t="s">
         <v>600</v>
       </c>
       <c r="E112" s="3"/>
     </row>
     <row r="113">
       <c r="A113" s="3"/>
-      <c r="B113" s="31"/>
-      <c r="C113" s="36" t="s">
+      <c r="B113" s="32"/>
+      <c r="C113" s="37" t="s">
         <v>665</v>
       </c>
       <c r="E113" s="3"/>
@@ -28495,122 +28513,122 @@
       <c r="A114" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B114" s="31" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C114" s="36" t="s">
+      <c r="B114" s="32" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C114" s="37" t="s">
         <v>910</v>
       </c>
       <c r="E114" s="3"/>
     </row>
     <row r="115">
       <c r="A115" s="3"/>
-      <c r="B115" s="31"/>
-      <c r="C115" s="36" t="s">
+      <c r="B115" s="32"/>
+      <c r="C115" s="37" t="s">
         <v>505</v>
       </c>
       <c r="E115" s="3"/>
     </row>
     <row r="116">
       <c r="A116" s="3"/>
-      <c r="B116" s="31"/>
-      <c r="C116" s="36" t="s">
+      <c r="B116" s="32"/>
+      <c r="C116" s="37" t="s">
         <v>909</v>
       </c>
       <c r="E116" s="3"/>
     </row>
     <row r="117">
       <c r="A117" s="3"/>
-      <c r="B117" s="31"/>
-      <c r="C117" s="36" t="s">
-        <v>1119</v>
+      <c r="B117" s="32"/>
+      <c r="C117" s="37" t="s">
+        <v>1117</v>
       </c>
       <c r="E117" s="3"/>
     </row>
     <row r="118">
       <c r="A118" s="3"/>
-      <c r="B118" s="31"/>
-      <c r="C118" s="36" t="s">
-        <v>1120</v>
+      <c r="B118" s="32"/>
+      <c r="C118" s="37" t="s">
+        <v>1118</v>
       </c>
       <c r="E118" s="3"/>
     </row>
     <row r="119">
       <c r="A119" s="3"/>
-      <c r="B119" s="31"/>
-      <c r="C119" s="36" t="s">
-        <v>1121</v>
+      <c r="B119" s="32"/>
+      <c r="C119" s="37" t="s">
+        <v>1119</v>
       </c>
       <c r="E119" s="3"/>
     </row>
     <row r="120">
       <c r="A120" s="3"/>
-      <c r="B120" s="31"/>
-      <c r="C120" s="36" t="s">
+      <c r="B120" s="32"/>
+      <c r="C120" s="37" t="s">
         <v>507</v>
       </c>
       <c r="E120" s="3"/>
     </row>
     <row r="121">
       <c r="A121" s="3"/>
-      <c r="B121" s="31"/>
-      <c r="C121" s="36" t="s">
-        <v>1122</v>
+      <c r="B121" s="32"/>
+      <c r="C121" s="37" t="s">
+        <v>1120</v>
       </c>
       <c r="E121" s="3"/>
     </row>
     <row r="122">
       <c r="A122" s="3"/>
-      <c r="B122" s="31"/>
-      <c r="C122" s="36" t="s">
+      <c r="B122" s="32"/>
+      <c r="C122" s="37" t="s">
         <v>503</v>
       </c>
       <c r="E122" s="3"/>
     </row>
     <row r="123">
       <c r="A123" s="3"/>
-      <c r="B123" s="31"/>
-      <c r="C123" s="36" t="s">
+      <c r="B123" s="32"/>
+      <c r="C123" s="37" t="s">
         <v>504</v>
       </c>
       <c r="E123" s="3"/>
     </row>
     <row r="124">
       <c r="A124" s="3"/>
-      <c r="B124" s="31"/>
-      <c r="C124" s="36" t="s">
+      <c r="B124" s="32"/>
+      <c r="C124" s="37" t="s">
         <v>1056</v>
       </c>
       <c r="E124" s="3"/>
     </row>
     <row r="125">
       <c r="A125" s="3"/>
-      <c r="B125" s="31"/>
-      <c r="C125" s="36" t="s">
+      <c r="B125" s="32"/>
+      <c r="C125" s="37" t="s">
         <v>508</v>
       </c>
       <c r="E125" s="3"/>
     </row>
     <row r="126">
       <c r="A126" s="3"/>
-      <c r="B126" s="31"/>
-      <c r="C126" s="36" t="s">
+      <c r="B126" s="32"/>
+      <c r="C126" s="37" t="s">
         <v>509</v>
       </c>
       <c r="E126" s="3"/>
     </row>
     <row r="127">
       <c r="A127" s="3"/>
-      <c r="B127" s="31"/>
-      <c r="C127" s="36" t="s">
+      <c r="B127" s="32"/>
+      <c r="C127" s="37" t="s">
         <v>911</v>
       </c>
       <c r="E127" s="3"/>
     </row>
     <row r="128">
       <c r="A128" s="3"/>
-      <c r="B128" s="31"/>
-      <c r="C128" s="36" t="s">
+      <c r="B128" s="32"/>
+      <c r="C128" s="37" t="s">
         <v>912</v>
       </c>
       <c r="E128" s="3"/>
@@ -28619,67 +28637,67 @@
       <c r="A129" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B129" s="31" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C129" s="36" t="s">
+      <c r="B129" s="32" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C129" s="37" t="s">
         <v>918</v>
       </c>
       <c r="E129" s="3"/>
     </row>
     <row r="130">
       <c r="A130" s="3"/>
-      <c r="B130" s="31"/>
-      <c r="C130" s="36" t="s">
+      <c r="B130" s="32"/>
+      <c r="C130" s="37" t="s">
         <v>502</v>
       </c>
       <c r="E130" s="3"/>
     </row>
     <row r="131">
       <c r="A131" s="3"/>
-      <c r="B131" s="31"/>
-      <c r="C131" s="36" t="s">
-        <v>1123</v>
+      <c r="B131" s="32"/>
+      <c r="C131" s="37" t="s">
+        <v>1121</v>
       </c>
       <c r="E131" s="3"/>
     </row>
     <row r="132">
       <c r="A132" s="3"/>
-      <c r="B132" s="31"/>
-      <c r="C132" s="36" t="s">
-        <v>1124</v>
+      <c r="B132" s="32"/>
+      <c r="C132" s="37" t="s">
+        <v>1122</v>
       </c>
       <c r="E132" s="3"/>
     </row>
     <row r="133">
       <c r="A133" s="3"/>
-      <c r="B133" s="31"/>
-      <c r="C133" s="36" t="s">
-        <v>1125</v>
+      <c r="B133" s="32"/>
+      <c r="C133" s="37" t="s">
+        <v>1123</v>
       </c>
       <c r="E133" s="3"/>
     </row>
     <row r="134">
       <c r="A134" s="3"/>
-      <c r="B134" s="31"/>
-      <c r="C134" s="36" t="s">
+      <c r="B134" s="32"/>
+      <c r="C134" s="37" t="s">
         <v>128</v>
       </c>
       <c r="E134" s="3"/>
     </row>
     <row r="135">
       <c r="A135" s="3"/>
-      <c r="B135" s="31"/>
-      <c r="C135" s="36" t="s">
+      <c r="B135" s="32"/>
+      <c r="C135" s="37" t="s">
         <v>1025</v>
       </c>
       <c r="E135" s="3"/>
     </row>
     <row r="136">
       <c r="A136" s="3"/>
-      <c r="B136" s="31"/>
-      <c r="C136" s="36" t="s">
-        <v>1126</v>
+      <c r="B136" s="32"/>
+      <c r="C136" s="37" t="s">
+        <v>1124</v>
       </c>
       <c r="E136" s="3"/>
     </row>
@@ -28687,331 +28705,331 @@
       <c r="A137" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B137" s="31" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C137" s="38" t="s">
+      <c r="B137" s="32" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C137" s="39" t="s">
         <v>481</v>
       </c>
       <c r="E137" s="3"/>
     </row>
     <row r="138">
       <c r="A138" s="3"/>
-      <c r="B138" s="31"/>
-      <c r="C138" s="38" t="s">
+      <c r="B138" s="32"/>
+      <c r="C138" s="39" t="s">
         <v>638</v>
       </c>
       <c r="E138" s="3"/>
     </row>
     <row r="139">
       <c r="A139" s="3"/>
-      <c r="B139" s="31"/>
-      <c r="C139" s="38" t="s">
+      <c r="B139" s="32"/>
+      <c r="C139" s="39" t="s">
         <v>640</v>
       </c>
       <c r="E139" s="3"/>
     </row>
     <row r="140">
       <c r="A140" s="3"/>
-      <c r="B140" s="31"/>
-      <c r="C140" s="38" t="s">
+      <c r="B140" s="32"/>
+      <c r="C140" s="39" t="s">
         <v>482</v>
       </c>
       <c r="E140" s="3"/>
     </row>
     <row r="141">
       <c r="A141" s="3"/>
-      <c r="B141" s="31"/>
-      <c r="C141" s="38" t="s">
-        <v>1100</v>
+      <c r="B141" s="32"/>
+      <c r="C141" s="39" t="s">
+        <v>1098</v>
       </c>
       <c r="E141" s="3"/>
     </row>
     <row r="142">
       <c r="A142" s="3"/>
-      <c r="B142" s="31"/>
-      <c r="C142" s="38" t="s">
-        <v>1101</v>
+      <c r="B142" s="32"/>
+      <c r="C142" s="39" t="s">
+        <v>1099</v>
       </c>
       <c r="E142" s="3"/>
     </row>
     <row r="143">
       <c r="A143" s="3"/>
-      <c r="B143" s="31"/>
-      <c r="C143" s="38" t="s">
-        <v>1102</v>
+      <c r="B143" s="32"/>
+      <c r="C143" s="39" t="s">
+        <v>1100</v>
       </c>
       <c r="E143" s="3"/>
     </row>
     <row r="144">
       <c r="A144" s="3"/>
-      <c r="B144" s="31"/>
-      <c r="C144" s="38" t="s">
-        <v>1103</v>
+      <c r="B144" s="32"/>
+      <c r="C144" s="39" t="s">
+        <v>1101</v>
       </c>
       <c r="E144" s="3"/>
     </row>
     <row r="145">
       <c r="A145" s="3"/>
-      <c r="B145" s="31"/>
-      <c r="C145" s="38" t="s">
-        <v>1104</v>
+      <c r="B145" s="32"/>
+      <c r="C145" s="39" t="s">
+        <v>1102</v>
       </c>
       <c r="E145" s="3"/>
     </row>
     <row r="146">
       <c r="A146" s="3"/>
-      <c r="B146" s="31"/>
-      <c r="C146" s="38" t="s">
+      <c r="B146" s="32"/>
+      <c r="C146" s="39" t="s">
         <v>641</v>
       </c>
       <c r="E146" s="3"/>
     </row>
     <row r="147">
       <c r="A147" s="3"/>
-      <c r="B147" s="31"/>
-      <c r="C147" s="38" t="s">
-        <v>1105</v>
+      <c r="B147" s="32"/>
+      <c r="C147" s="39" t="s">
+        <v>1103</v>
       </c>
       <c r="E147" s="3"/>
     </row>
     <row r="148">
       <c r="A148" s="3"/>
-      <c r="B148" s="31"/>
-      <c r="C148" s="38" t="s">
+      <c r="B148" s="32"/>
+      <c r="C148" s="39" t="s">
         <v>648</v>
       </c>
       <c r="E148" s="3"/>
     </row>
     <row r="149">
       <c r="A149" s="3"/>
-      <c r="B149" s="31"/>
-      <c r="C149" s="38" t="s">
+      <c r="B149" s="32"/>
+      <c r="C149" s="39" t="s">
         <v>478</v>
       </c>
       <c r="E149" s="3"/>
     </row>
     <row r="150">
       <c r="A150" s="3"/>
-      <c r="B150" s="31"/>
-      <c r="C150" s="38" t="s">
+      <c r="B150" s="32"/>
+      <c r="C150" s="39" t="s">
         <v>642</v>
       </c>
       <c r="E150" s="3"/>
     </row>
     <row r="151">
       <c r="A151" s="3"/>
-      <c r="B151" s="31"/>
-      <c r="C151" s="38" t="s">
+      <c r="B151" s="32"/>
+      <c r="C151" s="39" t="s">
         <v>1037</v>
       </c>
       <c r="E151" s="3"/>
     </row>
     <row r="152">
       <c r="A152" s="3"/>
-      <c r="B152" s="31"/>
-      <c r="C152" s="38" t="s">
-        <v>1106</v>
+      <c r="B152" s="32"/>
+      <c r="C152" s="39" t="s">
+        <v>1104</v>
       </c>
       <c r="E152" s="3"/>
     </row>
     <row r="153">
       <c r="A153" s="3"/>
-      <c r="B153" s="31"/>
-      <c r="C153" s="38" t="s">
-        <v>1107</v>
+      <c r="B153" s="32"/>
+      <c r="C153" s="39" t="s">
+        <v>1105</v>
       </c>
       <c r="E153" s="3"/>
     </row>
     <row r="154">
       <c r="A154" s="3"/>
-      <c r="B154" s="31"/>
-      <c r="C154" s="38" t="s">
+      <c r="B154" s="32"/>
+      <c r="C154" s="39" t="s">
         <v>300</v>
       </c>
       <c r="E154" s="3"/>
     </row>
     <row r="155">
       <c r="A155" s="3"/>
-      <c r="B155" s="31"/>
-      <c r="C155" s="38" t="s">
+      <c r="B155" s="32"/>
+      <c r="C155" s="39" t="s">
         <v>479</v>
       </c>
       <c r="E155" s="3"/>
     </row>
     <row r="156">
       <c r="A156" s="3"/>
-      <c r="B156" s="31"/>
-      <c r="C156" s="38" t="s">
+      <c r="B156" s="32"/>
+      <c r="C156" s="39" t="s">
         <v>470</v>
       </c>
       <c r="E156" s="3"/>
     </row>
     <row r="157">
       <c r="A157" s="3"/>
-      <c r="B157" s="31"/>
-      <c r="C157" s="38" t="s">
-        <v>1108</v>
+      <c r="B157" s="32"/>
+      <c r="C157" s="39" t="s">
+        <v>1106</v>
       </c>
       <c r="E157" s="3"/>
     </row>
     <row r="158">
       <c r="A158" s="3"/>
-      <c r="B158" s="31"/>
-      <c r="C158" s="38" t="s">
-        <v>1109</v>
+      <c r="B158" s="32"/>
+      <c r="C158" s="39" t="s">
+        <v>1107</v>
       </c>
       <c r="E158" s="3"/>
     </row>
     <row r="159">
       <c r="A159" s="3"/>
-      <c r="B159" s="31"/>
-      <c r="C159" s="38" t="s">
+      <c r="B159" s="32"/>
+      <c r="C159" s="39" t="s">
         <v>1034</v>
       </c>
       <c r="E159" s="3"/>
     </row>
     <row r="160">
       <c r="A160" s="3"/>
-      <c r="B160" s="31"/>
-      <c r="C160" s="38" t="s">
+      <c r="B160" s="32"/>
+      <c r="C160" s="39" t="s">
         <v>472</v>
       </c>
       <c r="E160" s="3"/>
     </row>
     <row r="161">
       <c r="A161" s="3"/>
-      <c r="B161" s="31"/>
-      <c r="C161" s="38" t="s">
+      <c r="B161" s="32"/>
+      <c r="C161" s="39" t="s">
         <v>653</v>
       </c>
       <c r="E161" s="3"/>
     </row>
     <row r="162">
       <c r="A162" s="3"/>
-      <c r="B162" s="31"/>
-      <c r="C162" s="38" t="s">
+      <c r="B162" s="32"/>
+      <c r="C162" s="39" t="s">
         <v>1041</v>
       </c>
       <c r="E162" s="3"/>
     </row>
     <row r="163">
       <c r="A163" s="3"/>
-      <c r="B163" s="31"/>
-      <c r="C163" s="38" t="s">
+      <c r="B163" s="32"/>
+      <c r="C163" s="39" t="s">
         <v>1029</v>
       </c>
       <c r="E163" s="3"/>
     </row>
     <row r="164">
       <c r="A164" s="3"/>
-      <c r="B164" s="31"/>
-      <c r="C164" s="38" t="s">
+      <c r="B164" s="32"/>
+      <c r="C164" s="39" t="s">
         <v>474</v>
       </c>
       <c r="E164" s="3"/>
     </row>
     <row r="165">
       <c r="A165" s="3"/>
-      <c r="B165" s="31"/>
-      <c r="C165" s="38" t="s">
+      <c r="B165" s="32"/>
+      <c r="C165" s="39" t="s">
         <v>477</v>
       </c>
       <c r="E165" s="3"/>
     </row>
     <row r="166">
       <c r="A166" s="3"/>
-      <c r="B166" s="31"/>
-      <c r="C166" s="38" t="s">
+      <c r="B166" s="32"/>
+      <c r="C166" s="39" t="s">
         <v>632</v>
       </c>
       <c r="E166" s="3"/>
     </row>
     <row r="167">
       <c r="A167" s="3"/>
-      <c r="B167" s="31"/>
-      <c r="C167" s="38" t="s">
-        <v>1110</v>
+      <c r="B167" s="32"/>
+      <c r="C167" s="39" t="s">
+        <v>1108</v>
       </c>
       <c r="E167" s="3"/>
     </row>
     <row r="168">
       <c r="A168" s="3"/>
-      <c r="B168" s="31"/>
-      <c r="C168" s="38" t="s">
+      <c r="B168" s="32"/>
+      <c r="C168" s="39" t="s">
         <v>555</v>
       </c>
       <c r="E168" s="3"/>
     </row>
     <row r="169">
       <c r="A169" s="3"/>
-      <c r="B169" s="31"/>
-      <c r="C169" s="38" t="s">
-        <v>1111</v>
+      <c r="B169" s="32"/>
+      <c r="C169" s="39" t="s">
+        <v>1109</v>
       </c>
       <c r="E169" s="3"/>
     </row>
     <row r="170">
       <c r="A170" s="3"/>
-      <c r="B170" s="31"/>
-      <c r="C170" s="38" t="s">
+      <c r="B170" s="32"/>
+      <c r="C170" s="39" t="s">
         <v>484</v>
       </c>
       <c r="E170" s="3"/>
     </row>
     <row r="171">
       <c r="A171" s="3"/>
-      <c r="B171" s="31"/>
-      <c r="C171" s="38" t="s">
-        <v>1112</v>
+      <c r="B171" s="32"/>
+      <c r="C171" s="39" t="s">
+        <v>1110</v>
       </c>
       <c r="E171" s="3"/>
     </row>
     <row r="172">
       <c r="A172" s="3"/>
-      <c r="B172" s="31"/>
+      <c r="B172" s="32"/>
       <c r="E172" s="3"/>
     </row>
     <row r="173">
-      <c r="A173" s="33" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B173" s="34"/>
-      <c r="C173" s="33"/>
-      <c r="D173" s="35"/>
-      <c r="E173" s="33"/>
-      <c r="F173" s="35"/>
-      <c r="G173" s="35"/>
-      <c r="H173" s="35"/>
-      <c r="I173" s="35"/>
-      <c r="J173" s="35"/>
-      <c r="K173" s="35"/>
-      <c r="L173" s="35"/>
-      <c r="M173" s="35"/>
-      <c r="N173" s="35"/>
-      <c r="O173" s="35"/>
-      <c r="P173" s="35"/>
-      <c r="Q173" s="35"/>
-      <c r="R173" s="35"/>
-      <c r="S173" s="35"/>
-      <c r="T173" s="35"/>
-      <c r="U173" s="35"/>
-      <c r="V173" s="35"/>
-      <c r="W173" s="35"/>
-      <c r="X173" s="35"/>
-      <c r="Y173" s="35"/>
-      <c r="Z173" s="35"/>
-      <c r="AA173" s="35"/>
-      <c r="AB173" s="35"/>
-      <c r="AC173" s="35"/>
-      <c r="AD173" s="35"/>
+      <c r="A173" s="34" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B173" s="35"/>
+      <c r="C173" s="34"/>
+      <c r="D173" s="36"/>
+      <c r="E173" s="34"/>
+      <c r="F173" s="36"/>
+      <c r="G173" s="36"/>
+      <c r="H173" s="36"/>
+      <c r="I173" s="36"/>
+      <c r="J173" s="36"/>
+      <c r="K173" s="36"/>
+      <c r="L173" s="36"/>
+      <c r="M173" s="36"/>
+      <c r="N173" s="36"/>
+      <c r="O173" s="36"/>
+      <c r="P173" s="36"/>
+      <c r="Q173" s="36"/>
+      <c r="R173" s="36"/>
+      <c r="S173" s="36"/>
+      <c r="T173" s="36"/>
+      <c r="U173" s="36"/>
+      <c r="V173" s="36"/>
+      <c r="W173" s="36"/>
+      <c r="X173" s="36"/>
+      <c r="Y173" s="36"/>
+      <c r="Z173" s="36"/>
+      <c r="AA173" s="36"/>
+      <c r="AB173" s="36"/>
+      <c r="AC173" s="36"/>
+      <c r="AD173" s="36"/>
     </row>
     <row r="174">
       <c r="A174" s="3" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B174" s="31" t="s">
-        <v>1127</v>
+        <v>1080</v>
+      </c>
+      <c r="B174" s="32" t="s">
+        <v>1125</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>71</v>
@@ -29020,7 +29038,7 @@
     </row>
     <row r="175">
       <c r="A175" s="3"/>
-      <c r="B175" s="31"/>
+      <c r="B175" s="32"/>
       <c r="C175" s="3" t="s">
         <v>75</v>
       </c>
@@ -29028,7 +29046,7 @@
     </row>
     <row r="176">
       <c r="A176" s="3"/>
-      <c r="B176" s="31"/>
+      <c r="B176" s="32"/>
       <c r="C176" s="3" t="s">
         <v>79</v>
       </c>
@@ -29036,7 +29054,7 @@
     </row>
     <row r="177">
       <c r="A177" s="3"/>
-      <c r="B177" s="31"/>
+      <c r="B177" s="32"/>
       <c r="C177" s="3" t="s">
         <v>43</v>
       </c>
@@ -29044,7 +29062,7 @@
     </row>
     <row r="178">
       <c r="A178" s="3"/>
-      <c r="B178" s="31"/>
+      <c r="B178" s="32"/>
       <c r="C178" s="3"/>
       <c r="E178" s="3"/>
     </row>
@@ -29052,8 +29070,8 @@
       <c r="A179" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B179" s="31" t="s">
-        <v>1127</v>
+      <c r="B179" s="32" t="s">
+        <v>1125</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>400</v>
@@ -29062,7 +29080,7 @@
     </row>
     <row r="180">
       <c r="A180" s="3"/>
-      <c r="B180" s="31"/>
+      <c r="B180" s="32"/>
       <c r="C180" s="3" t="s">
         <v>401</v>
       </c>
@@ -29070,7 +29088,7 @@
     </row>
     <row r="181">
       <c r="A181" s="3"/>
-      <c r="B181" s="31"/>
+      <c r="B181" s="32"/>
       <c r="C181" s="3" t="s">
         <v>376</v>
       </c>
@@ -29078,7 +29096,7 @@
     </row>
     <row r="182">
       <c r="A182" s="3"/>
-      <c r="B182" s="31"/>
+      <c r="B182" s="32"/>
       <c r="C182" s="3" t="s">
         <v>386</v>
       </c>
@@ -29086,7 +29104,7 @@
     </row>
     <row r="183">
       <c r="A183" s="3"/>
-      <c r="B183" s="31"/>
+      <c r="B183" s="32"/>
       <c r="C183" s="3" t="s">
         <v>109</v>
       </c>
@@ -29094,7 +29112,7 @@
     </row>
     <row r="184">
       <c r="A184" s="3"/>
-      <c r="B184" s="31"/>
+      <c r="B184" s="32"/>
       <c r="C184" s="3"/>
       <c r="E184" s="3"/>
     </row>
@@ -29102,8 +29120,8 @@
       <c r="A185" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B185" s="31" t="s">
-        <v>1127</v>
+      <c r="B185" s="32" t="s">
+        <v>1125</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>25</v>
@@ -29112,7 +29130,7 @@
     </row>
     <row r="186">
       <c r="A186" s="3"/>
-      <c r="B186" s="31"/>
+      <c r="B186" s="32"/>
       <c r="C186" s="3"/>
       <c r="E186" s="3"/>
     </row>
@@ -29120,8 +29138,8 @@
       <c r="A187" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B187" s="31" t="s">
-        <v>1127</v>
+      <c r="B187" s="32" t="s">
+        <v>1125</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>25</v>
@@ -29130,31 +29148,31 @@
     </row>
     <row r="188">
       <c r="A188" s="3"/>
-      <c r="B188" s="31"/>
+      <c r="B188" s="32"/>
       <c r="C188" s="3"/>
       <c r="E188" s="3"/>
     </row>
     <row r="189">
       <c r="A189" s="3"/>
-      <c r="B189" s="31"/>
+      <c r="B189" s="32"/>
       <c r="C189" s="3"/>
       <c r="E189" s="3"/>
     </row>
     <row r="190">
       <c r="A190" s="3"/>
-      <c r="B190" s="31"/>
+      <c r="B190" s="32"/>
       <c r="C190" s="3"/>
       <c r="E190" s="3"/>
     </row>
     <row r="191">
       <c r="A191" s="3"/>
-      <c r="B191" s="31"/>
+      <c r="B191" s="32"/>
       <c r="C191" s="3"/>
       <c r="E191" s="3"/>
     </row>
     <row r="192">
       <c r="A192" s="3"/>
-      <c r="B192" s="31"/>
+      <c r="B192" s="32"/>
       <c r="C192" s="3"/>
       <c r="E192" s="3"/>
     </row>
@@ -29162,8 +29180,8 @@
       <c r="A193" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="B193" s="31" t="s">
-        <v>1127</v>
+      <c r="B193" s="32" t="s">
+        <v>1125</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>140</v>
@@ -29172,7 +29190,7 @@
     </row>
     <row r="194">
       <c r="A194" s="3"/>
-      <c r="B194" s="31"/>
+      <c r="B194" s="32"/>
       <c r="C194" s="3"/>
       <c r="E194" s="3"/>
     </row>
@@ -29180,8 +29198,8 @@
       <c r="A195" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B195" s="31" t="s">
-        <v>1127</v>
+      <c r="B195" s="32" t="s">
+        <v>1125</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>140</v>
@@ -29190,52 +29208,52 @@
     </row>
     <row r="196">
       <c r="A196" s="3"/>
-      <c r="B196" s="31"/>
+      <c r="B196" s="32"/>
       <c r="C196" s="3" t="s">
         <v>417</v>
       </c>
       <c r="E196" s="3"/>
     </row>
     <row r="197">
-      <c r="A197" s="33" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B197" s="34"/>
-      <c r="C197" s="33"/>
-      <c r="D197" s="35"/>
-      <c r="E197" s="33"/>
-      <c r="F197" s="35"/>
-      <c r="G197" s="35"/>
-      <c r="H197" s="35"/>
-      <c r="I197" s="35"/>
-      <c r="J197" s="35"/>
-      <c r="K197" s="35"/>
-      <c r="L197" s="35"/>
-      <c r="M197" s="35"/>
-      <c r="N197" s="35"/>
-      <c r="O197" s="35"/>
-      <c r="P197" s="35"/>
-      <c r="Q197" s="35"/>
-      <c r="R197" s="35"/>
-      <c r="S197" s="35"/>
-      <c r="T197" s="35"/>
-      <c r="U197" s="35"/>
-      <c r="V197" s="35"/>
-      <c r="W197" s="35"/>
-      <c r="X197" s="35"/>
-      <c r="Y197" s="35"/>
-      <c r="Z197" s="35"/>
-      <c r="AA197" s="35"/>
-      <c r="AB197" s="35"/>
-      <c r="AC197" s="35"/>
-      <c r="AD197" s="35"/>
+      <c r="A197" s="34" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B197" s="35"/>
+      <c r="C197" s="34"/>
+      <c r="D197" s="36"/>
+      <c r="E197" s="34"/>
+      <c r="F197" s="36"/>
+      <c r="G197" s="36"/>
+      <c r="H197" s="36"/>
+      <c r="I197" s="36"/>
+      <c r="J197" s="36"/>
+      <c r="K197" s="36"/>
+      <c r="L197" s="36"/>
+      <c r="M197" s="36"/>
+      <c r="N197" s="36"/>
+      <c r="O197" s="36"/>
+      <c r="P197" s="36"/>
+      <c r="Q197" s="36"/>
+      <c r="R197" s="36"/>
+      <c r="S197" s="36"/>
+      <c r="T197" s="36"/>
+      <c r="U197" s="36"/>
+      <c r="V197" s="36"/>
+      <c r="W197" s="36"/>
+      <c r="X197" s="36"/>
+      <c r="Y197" s="36"/>
+      <c r="Z197" s="36"/>
+      <c r="AA197" s="36"/>
+      <c r="AB197" s="36"/>
+      <c r="AC197" s="36"/>
+      <c r="AD197" s="36"/>
     </row>
     <row r="198">
       <c r="A198" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B198" s="31" t="s">
-        <v>1128</v>
+      <c r="B198" s="32" t="s">
+        <v>1126</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>27</v>
@@ -29244,13 +29262,13 @@
     </row>
     <row r="199">
       <c r="A199" s="3"/>
-      <c r="B199" s="31"/>
+      <c r="B199" s="32"/>
       <c r="C199" s="3"/>
       <c r="E199" s="3"/>
     </row>
     <row r="200">
       <c r="A200" s="3"/>
-      <c r="B200" s="31"/>
+      <c r="B200" s="32"/>
       <c r="C200" s="3"/>
       <c r="E200" s="3"/>
     </row>
@@ -29258,8 +29276,8 @@
       <c r="A201" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="B201" s="31" t="s">
-        <v>1128</v>
+      <c r="B201" s="32" t="s">
+        <v>1126</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>23</v>
@@ -29268,76 +29286,76 @@
     </row>
     <row r="202">
       <c r="A202" s="3"/>
-      <c r="B202" s="31"/>
+      <c r="B202" s="32"/>
       <c r="C202" s="3"/>
       <c r="E202" s="3"/>
     </row>
     <row r="203">
       <c r="A203" s="3"/>
-      <c r="B203" s="31"/>
+      <c r="B203" s="32"/>
       <c r="C203" s="3"/>
       <c r="E203" s="3"/>
     </row>
     <row r="204">
       <c r="A204" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B204" s="32" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E204" s="3" t="s">
         <v>1129</v>
-      </c>
-      <c r="B204" s="31" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>1130</v>
-      </c>
-      <c r="E204" s="3" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="3"/>
-      <c r="B205" s="31"/>
+      <c r="B205" s="32"/>
       <c r="C205" s="3"/>
       <c r="E205" s="3"/>
     </row>
     <row r="206">
-      <c r="A206" s="33" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B206" s="34"/>
-      <c r="C206" s="33"/>
-      <c r="D206" s="35"/>
-      <c r="E206" s="33"/>
-      <c r="F206" s="35"/>
-      <c r="G206" s="35"/>
-      <c r="H206" s="35"/>
-      <c r="I206" s="35"/>
-      <c r="J206" s="35"/>
-      <c r="K206" s="35"/>
-      <c r="L206" s="35"/>
-      <c r="M206" s="35"/>
-      <c r="N206" s="35"/>
-      <c r="O206" s="35"/>
-      <c r="P206" s="35"/>
-      <c r="Q206" s="35"/>
-      <c r="R206" s="35"/>
-      <c r="S206" s="35"/>
-      <c r="T206" s="35"/>
-      <c r="U206" s="35"/>
-      <c r="V206" s="35"/>
-      <c r="W206" s="35"/>
-      <c r="X206" s="35"/>
-      <c r="Y206" s="35"/>
-      <c r="Z206" s="35"/>
-      <c r="AA206" s="35"/>
-      <c r="AB206" s="35"/>
-      <c r="AC206" s="35"/>
-      <c r="AD206" s="35"/>
+      <c r="A206" s="34" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B206" s="35"/>
+      <c r="C206" s="34"/>
+      <c r="D206" s="36"/>
+      <c r="E206" s="34"/>
+      <c r="F206" s="36"/>
+      <c r="G206" s="36"/>
+      <c r="H206" s="36"/>
+      <c r="I206" s="36"/>
+      <c r="J206" s="36"/>
+      <c r="K206" s="36"/>
+      <c r="L206" s="36"/>
+      <c r="M206" s="36"/>
+      <c r="N206" s="36"/>
+      <c r="O206" s="36"/>
+      <c r="P206" s="36"/>
+      <c r="Q206" s="36"/>
+      <c r="R206" s="36"/>
+      <c r="S206" s="36"/>
+      <c r="T206" s="36"/>
+      <c r="U206" s="36"/>
+      <c r="V206" s="36"/>
+      <c r="W206" s="36"/>
+      <c r="X206" s="36"/>
+      <c r="Y206" s="36"/>
+      <c r="Z206" s="36"/>
+      <c r="AA206" s="36"/>
+      <c r="AB206" s="36"/>
+      <c r="AC206" s="36"/>
+      <c r="AD206" s="36"/>
     </row>
     <row r="207">
       <c r="A207" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B207" s="31" t="s">
-        <v>1132</v>
+      <c r="B207" s="32" t="s">
+        <v>1130</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>303</v>
@@ -29346,7 +29364,7 @@
     </row>
     <row r="208">
       <c r="A208" s="3"/>
-      <c r="B208" s="31"/>
+      <c r="B208" s="32"/>
       <c r="C208" s="3" t="s">
         <v>307</v>
       </c>
@@ -29354,7 +29372,7 @@
     </row>
     <row r="209">
       <c r="A209" s="3"/>
-      <c r="B209" s="31"/>
+      <c r="B209" s="32"/>
       <c r="C209" s="3" t="s">
         <v>450</v>
       </c>
@@ -29362,23 +29380,23 @@
     </row>
     <row r="210">
       <c r="A210" s="3"/>
-      <c r="B210" s="31"/>
+      <c r="B210" s="32"/>
       <c r="C210" s="3" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="E210" s="3"/>
     </row>
     <row r="211">
       <c r="A211" s="3"/>
-      <c r="B211" s="31"/>
+      <c r="B211" s="32"/>
       <c r="C211" s="3" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="E211" s="3"/>
     </row>
     <row r="212">
       <c r="A212" s="3"/>
-      <c r="B212" s="31"/>
+      <c r="B212" s="32"/>
       <c r="C212" s="3" t="s">
         <v>304</v>
       </c>
@@ -29386,7 +29404,7 @@
     </row>
     <row r="213">
       <c r="A213" s="3"/>
-      <c r="B213" s="31"/>
+      <c r="B213" s="32"/>
       <c r="C213" s="3"/>
       <c r="E213" s="3"/>
     </row>
@@ -29394,8 +29412,8 @@
       <c r="A214" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B214" s="31" t="s">
-        <v>1132</v>
+      <c r="B214" s="32" t="s">
+        <v>1130</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>303</v>
@@ -29404,7 +29422,7 @@
     </row>
     <row r="215">
       <c r="A215" s="3"/>
-      <c r="B215" s="31"/>
+      <c r="B215" s="32"/>
       <c r="C215" s="3" t="s">
         <v>450</v>
       </c>
@@ -29412,15 +29430,15 @@
     </row>
     <row r="216">
       <c r="A216" s="3"/>
-      <c r="B216" s="31"/>
+      <c r="B216" s="32"/>
       <c r="C216" s="3" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="E216" s="3"/>
     </row>
     <row r="217">
       <c r="A217" s="3"/>
-      <c r="B217" s="31"/>
+      <c r="B217" s="32"/>
       <c r="C217" s="3" t="s">
         <v>304</v>
       </c>
@@ -29428,36 +29446,36 @@
     </row>
     <row r="218">
       <c r="A218" s="3"/>
-      <c r="B218" s="31"/>
+      <c r="B218" s="32"/>
       <c r="C218" s="3"/>
       <c r="E218" s="3"/>
     </row>
     <row r="219">
       <c r="A219" s="3"/>
-      <c r="B219" s="31"/>
+      <c r="B219" s="32"/>
       <c r="C219" s="3"/>
       <c r="E219" s="3"/>
     </row>
     <row r="220">
-      <c r="A220" s="39" t="s">
+      <c r="A220" s="40" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B220" s="41" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C220" s="40" t="s">
         <v>1135</v>
       </c>
-      <c r="B220" s="40" t="s">
+    </row>
+    <row r="221">
+      <c r="A221" s="40" t="s">
         <v>1136</v>
       </c>
-      <c r="C220" s="39" t="s">
+      <c r="B221" s="40" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="39" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B221" s="39" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C221" s="39" t="s">
-        <v>1070</v>
+      <c r="C221" s="40" t="s">
+        <v>1068</v>
       </c>
       <c r="E221" s="3" t="s">
         <v>146</v>
@@ -29465,35 +29483,35 @@
     </row>
     <row r="222">
       <c r="A222" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B222" s="32" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C222" s="3" t="s">
         <v>1140</v>
-      </c>
-      <c r="B222" s="31" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C222" s="3" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B223" s="32" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C223" s="3" t="s">
         <v>1143</v>
-      </c>
-      <c r="B223" s="31" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C223" s="3" t="s">
-        <v>1145</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="3" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B224" s="31" t="s">
-        <v>1147</v>
+        <v>1144</v>
+      </c>
+      <c r="B224" s="32" t="s">
+        <v>1145</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="226">
@@ -29502,10 +29520,10 @@
     </row>
     <row r="227">
       <c r="A227" s="3" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B227" s="31" t="s">
-        <v>1149</v>
+        <v>1146</v>
+      </c>
+      <c r="B227" s="32" t="s">
+        <v>1147</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>463</v>
@@ -29514,2084 +29532,2084 @@
         <v>14</v>
       </c>
       <c r="H227" s="3" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="228">
-      <c r="B228" s="41"/>
+      <c r="B228" s="42"/>
     </row>
     <row r="230">
-      <c r="B230" s="41"/>
+      <c r="B230" s="42"/>
     </row>
     <row r="231">
-      <c r="B231" s="41"/>
+      <c r="B231" s="42"/>
     </row>
     <row r="232">
-      <c r="B232" s="41"/>
+      <c r="B232" s="42"/>
     </row>
     <row r="233">
-      <c r="B233" s="41"/>
+      <c r="B233" s="42"/>
     </row>
     <row r="234">
-      <c r="B234" s="41"/>
+      <c r="B234" s="42"/>
     </row>
     <row r="235">
-      <c r="B235" s="41"/>
+      <c r="B235" s="42"/>
     </row>
     <row r="236">
-      <c r="B236" s="41"/>
+      <c r="B236" s="42"/>
     </row>
     <row r="237">
-      <c r="B237" s="41"/>
+      <c r="B237" s="42"/>
     </row>
     <row r="238">
-      <c r="B238" s="41"/>
+      <c r="B238" s="42"/>
     </row>
     <row r="239">
-      <c r="B239" s="41"/>
+      <c r="B239" s="42"/>
     </row>
     <row r="240">
-      <c r="B240" s="41"/>
+      <c r="B240" s="42"/>
     </row>
     <row r="241">
-      <c r="B241" s="41"/>
+      <c r="B241" s="42"/>
     </row>
     <row r="242">
-      <c r="B242" s="41"/>
+      <c r="B242" s="42"/>
     </row>
     <row r="243">
-      <c r="B243" s="41"/>
+      <c r="B243" s="42"/>
     </row>
     <row r="244">
-      <c r="B244" s="41"/>
+      <c r="B244" s="42"/>
     </row>
     <row r="245">
-      <c r="B245" s="41"/>
+      <c r="B245" s="42"/>
     </row>
     <row r="246">
-      <c r="B246" s="41"/>
+      <c r="B246" s="42"/>
     </row>
     <row r="247">
-      <c r="B247" s="41"/>
+      <c r="B247" s="42"/>
     </row>
     <row r="248">
-      <c r="B248" s="41"/>
+      <c r="B248" s="42"/>
     </row>
     <row r="249">
-      <c r="B249" s="41"/>
+      <c r="B249" s="42"/>
     </row>
     <row r="250">
-      <c r="B250" s="41"/>
+      <c r="B250" s="42"/>
     </row>
     <row r="251">
-      <c r="B251" s="41"/>
+      <c r="B251" s="42"/>
     </row>
     <row r="252">
-      <c r="B252" s="41"/>
+      <c r="B252" s="42"/>
     </row>
     <row r="253">
-      <c r="B253" s="41"/>
+      <c r="B253" s="42"/>
     </row>
     <row r="254">
-      <c r="B254" s="41"/>
+      <c r="B254" s="42"/>
     </row>
     <row r="255">
-      <c r="B255" s="41"/>
+      <c r="B255" s="42"/>
     </row>
     <row r="256">
-      <c r="B256" s="41"/>
+      <c r="B256" s="42"/>
     </row>
     <row r="257">
-      <c r="B257" s="41"/>
+      <c r="B257" s="42"/>
     </row>
     <row r="258">
-      <c r="B258" s="41"/>
+      <c r="B258" s="42"/>
     </row>
     <row r="259">
-      <c r="B259" s="41"/>
+      <c r="B259" s="42"/>
     </row>
     <row r="260">
-      <c r="B260" s="41"/>
+      <c r="B260" s="42"/>
     </row>
     <row r="261">
-      <c r="B261" s="41"/>
+      <c r="B261" s="42"/>
     </row>
     <row r="262">
-      <c r="B262" s="41"/>
+      <c r="B262" s="42"/>
     </row>
     <row r="263">
-      <c r="B263" s="41"/>
+      <c r="B263" s="42"/>
     </row>
     <row r="264">
-      <c r="B264" s="41"/>
+      <c r="B264" s="42"/>
     </row>
     <row r="265">
-      <c r="B265" s="41"/>
+      <c r="B265" s="42"/>
     </row>
     <row r="266">
-      <c r="B266" s="41"/>
+      <c r="B266" s="42"/>
     </row>
     <row r="267">
-      <c r="B267" s="41"/>
+      <c r="B267" s="42"/>
     </row>
     <row r="268">
-      <c r="B268" s="41"/>
+      <c r="B268" s="42"/>
     </row>
     <row r="269">
-      <c r="B269" s="41"/>
+      <c r="B269" s="42"/>
     </row>
     <row r="270">
-      <c r="B270" s="41"/>
+      <c r="B270" s="42"/>
     </row>
     <row r="271">
-      <c r="B271" s="41"/>
+      <c r="B271" s="42"/>
     </row>
     <row r="272">
-      <c r="B272" s="41"/>
+      <c r="B272" s="42"/>
     </row>
     <row r="273">
-      <c r="B273" s="41"/>
+      <c r="B273" s="42"/>
     </row>
     <row r="274">
-      <c r="B274" s="41"/>
+      <c r="B274" s="42"/>
     </row>
     <row r="275">
-      <c r="B275" s="41"/>
+      <c r="B275" s="42"/>
     </row>
     <row r="276">
-      <c r="B276" s="41"/>
+      <c r="B276" s="42"/>
     </row>
     <row r="277">
-      <c r="B277" s="41"/>
+      <c r="B277" s="42"/>
     </row>
     <row r="278">
-      <c r="B278" s="41"/>
+      <c r="B278" s="42"/>
     </row>
     <row r="279">
-      <c r="B279" s="41"/>
+      <c r="B279" s="42"/>
     </row>
     <row r="280">
-      <c r="B280" s="41"/>
+      <c r="B280" s="42"/>
     </row>
     <row r="281">
-      <c r="B281" s="41"/>
+      <c r="B281" s="42"/>
     </row>
     <row r="282">
-      <c r="B282" s="41"/>
+      <c r="B282" s="42"/>
     </row>
     <row r="283">
-      <c r="B283" s="41"/>
+      <c r="B283" s="42"/>
     </row>
     <row r="284">
-      <c r="B284" s="41"/>
+      <c r="B284" s="42"/>
     </row>
     <row r="285">
-      <c r="B285" s="41"/>
+      <c r="B285" s="42"/>
     </row>
     <row r="286">
-      <c r="B286" s="41"/>
+      <c r="B286" s="42"/>
     </row>
     <row r="287">
-      <c r="B287" s="41"/>
+      <c r="B287" s="42"/>
     </row>
     <row r="288">
-      <c r="B288" s="41"/>
+      <c r="B288" s="42"/>
     </row>
     <row r="289">
-      <c r="B289" s="41"/>
+      <c r="B289" s="42"/>
     </row>
     <row r="290">
-      <c r="B290" s="41"/>
+      <c r="B290" s="42"/>
     </row>
     <row r="291">
-      <c r="B291" s="41"/>
+      <c r="B291" s="42"/>
     </row>
     <row r="292">
-      <c r="B292" s="41"/>
+      <c r="B292" s="42"/>
     </row>
     <row r="293">
-      <c r="B293" s="41"/>
+      <c r="B293" s="42"/>
     </row>
     <row r="294">
-      <c r="B294" s="41"/>
+      <c r="B294" s="42"/>
     </row>
     <row r="295">
-      <c r="B295" s="41"/>
+      <c r="B295" s="42"/>
     </row>
     <row r="296">
-      <c r="B296" s="41"/>
+      <c r="B296" s="42"/>
     </row>
     <row r="297">
-      <c r="B297" s="41"/>
+      <c r="B297" s="42"/>
     </row>
     <row r="298">
-      <c r="B298" s="41"/>
+      <c r="B298" s="42"/>
     </row>
     <row r="299">
-      <c r="B299" s="41"/>
+      <c r="B299" s="42"/>
     </row>
     <row r="300">
-      <c r="B300" s="41"/>
+      <c r="B300" s="42"/>
     </row>
     <row r="301">
-      <c r="B301" s="41"/>
+      <c r="B301" s="42"/>
     </row>
     <row r="302">
-      <c r="B302" s="41"/>
+      <c r="B302" s="42"/>
     </row>
     <row r="303">
-      <c r="B303" s="41"/>
+      <c r="B303" s="42"/>
     </row>
     <row r="304">
-      <c r="B304" s="41"/>
+      <c r="B304" s="42"/>
     </row>
     <row r="305">
-      <c r="B305" s="41"/>
+      <c r="B305" s="42"/>
     </row>
     <row r="306">
-      <c r="B306" s="41"/>
+      <c r="B306" s="42"/>
     </row>
     <row r="307">
-      <c r="B307" s="41"/>
+      <c r="B307" s="42"/>
     </row>
     <row r="308">
-      <c r="B308" s="41"/>
+      <c r="B308" s="42"/>
     </row>
     <row r="309">
-      <c r="B309" s="41"/>
+      <c r="B309" s="42"/>
     </row>
     <row r="310">
-      <c r="B310" s="41"/>
+      <c r="B310" s="42"/>
     </row>
     <row r="311">
-      <c r="B311" s="41"/>
+      <c r="B311" s="42"/>
     </row>
     <row r="312">
-      <c r="B312" s="41"/>
+      <c r="B312" s="42"/>
     </row>
     <row r="313">
-      <c r="B313" s="41"/>
+      <c r="B313" s="42"/>
     </row>
     <row r="314">
-      <c r="B314" s="41"/>
+      <c r="B314" s="42"/>
     </row>
     <row r="315">
-      <c r="B315" s="41"/>
+      <c r="B315" s="42"/>
     </row>
     <row r="316">
-      <c r="B316" s="41"/>
+      <c r="B316" s="42"/>
     </row>
     <row r="317">
-      <c r="B317" s="41"/>
+      <c r="B317" s="42"/>
     </row>
     <row r="318">
-      <c r="B318" s="41"/>
+      <c r="B318" s="42"/>
     </row>
     <row r="319">
-      <c r="B319" s="41"/>
+      <c r="B319" s="42"/>
     </row>
     <row r="320">
-      <c r="B320" s="41"/>
+      <c r="B320" s="42"/>
     </row>
     <row r="321">
-      <c r="B321" s="41"/>
+      <c r="B321" s="42"/>
     </row>
     <row r="322">
-      <c r="B322" s="41"/>
+      <c r="B322" s="42"/>
     </row>
     <row r="323">
-      <c r="B323" s="41"/>
+      <c r="B323" s="42"/>
     </row>
     <row r="324">
-      <c r="B324" s="41"/>
+      <c r="B324" s="42"/>
     </row>
     <row r="325">
-      <c r="B325" s="41"/>
+      <c r="B325" s="42"/>
     </row>
     <row r="326">
-      <c r="B326" s="41"/>
+      <c r="B326" s="42"/>
     </row>
     <row r="327">
-      <c r="B327" s="41"/>
+      <c r="B327" s="42"/>
     </row>
     <row r="328">
-      <c r="B328" s="41"/>
+      <c r="B328" s="42"/>
     </row>
     <row r="329">
-      <c r="B329" s="41"/>
+      <c r="B329" s="42"/>
     </row>
     <row r="330">
-      <c r="B330" s="41"/>
+      <c r="B330" s="42"/>
     </row>
     <row r="331">
-      <c r="B331" s="41"/>
+      <c r="B331" s="42"/>
     </row>
     <row r="332">
-      <c r="B332" s="41"/>
+      <c r="B332" s="42"/>
     </row>
     <row r="333">
-      <c r="B333" s="41"/>
+      <c r="B333" s="42"/>
     </row>
     <row r="334">
-      <c r="B334" s="41"/>
+      <c r="B334" s="42"/>
     </row>
     <row r="335">
-      <c r="B335" s="41"/>
+      <c r="B335" s="42"/>
     </row>
     <row r="336">
-      <c r="B336" s="41"/>
+      <c r="B336" s="42"/>
     </row>
     <row r="337">
-      <c r="B337" s="41"/>
+      <c r="B337" s="42"/>
     </row>
     <row r="338">
-      <c r="B338" s="41"/>
+      <c r="B338" s="42"/>
     </row>
     <row r="339">
-      <c r="B339" s="41"/>
+      <c r="B339" s="42"/>
     </row>
     <row r="340">
-      <c r="B340" s="41"/>
+      <c r="B340" s="42"/>
     </row>
     <row r="341">
-      <c r="B341" s="41"/>
+      <c r="B341" s="42"/>
     </row>
     <row r="342">
-      <c r="B342" s="41"/>
+      <c r="B342" s="42"/>
     </row>
     <row r="343">
-      <c r="B343" s="41"/>
+      <c r="B343" s="42"/>
     </row>
     <row r="344">
-      <c r="B344" s="41"/>
+      <c r="B344" s="42"/>
     </row>
     <row r="345">
-      <c r="B345" s="41"/>
+      <c r="B345" s="42"/>
     </row>
     <row r="346">
-      <c r="B346" s="41"/>
+      <c r="B346" s="42"/>
     </row>
     <row r="347">
-      <c r="B347" s="41"/>
+      <c r="B347" s="42"/>
     </row>
     <row r="348">
-      <c r="B348" s="41"/>
+      <c r="B348" s="42"/>
     </row>
     <row r="349">
-      <c r="B349" s="41"/>
+      <c r="B349" s="42"/>
     </row>
     <row r="350">
-      <c r="B350" s="41"/>
+      <c r="B350" s="42"/>
     </row>
     <row r="351">
-      <c r="B351" s="41"/>
+      <c r="B351" s="42"/>
     </row>
     <row r="352">
-      <c r="B352" s="41"/>
+      <c r="B352" s="42"/>
     </row>
     <row r="353">
-      <c r="B353" s="41"/>
+      <c r="B353" s="42"/>
     </row>
     <row r="354">
-      <c r="B354" s="41"/>
+      <c r="B354" s="42"/>
     </row>
     <row r="355">
-      <c r="B355" s="41"/>
+      <c r="B355" s="42"/>
     </row>
     <row r="356">
-      <c r="B356" s="41"/>
+      <c r="B356" s="42"/>
     </row>
     <row r="357">
-      <c r="B357" s="41"/>
+      <c r="B357" s="42"/>
     </row>
     <row r="358">
-      <c r="B358" s="41"/>
+      <c r="B358" s="42"/>
     </row>
     <row r="359">
-      <c r="B359" s="41"/>
+      <c r="B359" s="42"/>
     </row>
     <row r="360">
-      <c r="B360" s="41"/>
+      <c r="B360" s="42"/>
     </row>
     <row r="361">
-      <c r="B361" s="41"/>
+      <c r="B361" s="42"/>
     </row>
     <row r="362">
-      <c r="B362" s="41"/>
+      <c r="B362" s="42"/>
     </row>
     <row r="363">
-      <c r="B363" s="41"/>
+      <c r="B363" s="42"/>
     </row>
     <row r="364">
-      <c r="B364" s="41"/>
+      <c r="B364" s="42"/>
     </row>
     <row r="365">
-      <c r="B365" s="41"/>
+      <c r="B365" s="42"/>
     </row>
     <row r="366">
-      <c r="B366" s="41"/>
+      <c r="B366" s="42"/>
     </row>
     <row r="367">
-      <c r="B367" s="41"/>
+      <c r="B367" s="42"/>
     </row>
     <row r="368">
-      <c r="B368" s="41"/>
+      <c r="B368" s="42"/>
     </row>
     <row r="369">
-      <c r="B369" s="41"/>
+      <c r="B369" s="42"/>
     </row>
     <row r="370">
-      <c r="B370" s="41"/>
+      <c r="B370" s="42"/>
     </row>
     <row r="371">
-      <c r="B371" s="41"/>
+      <c r="B371" s="42"/>
     </row>
     <row r="372">
-      <c r="B372" s="41"/>
+      <c r="B372" s="42"/>
     </row>
     <row r="373">
-      <c r="B373" s="41"/>
+      <c r="B373" s="42"/>
     </row>
     <row r="374">
-      <c r="B374" s="41"/>
+      <c r="B374" s="42"/>
     </row>
     <row r="375">
-      <c r="B375" s="41"/>
+      <c r="B375" s="42"/>
     </row>
     <row r="376">
-      <c r="B376" s="41"/>
+      <c r="B376" s="42"/>
     </row>
     <row r="377">
-      <c r="B377" s="41"/>
+      <c r="B377" s="42"/>
     </row>
     <row r="378">
-      <c r="B378" s="41"/>
+      <c r="B378" s="42"/>
     </row>
     <row r="379">
-      <c r="B379" s="41"/>
+      <c r="B379" s="42"/>
     </row>
     <row r="380">
-      <c r="B380" s="41"/>
+      <c r="B380" s="42"/>
     </row>
     <row r="381">
-      <c r="B381" s="41"/>
+      <c r="B381" s="42"/>
     </row>
     <row r="382">
-      <c r="B382" s="41"/>
+      <c r="B382" s="42"/>
     </row>
     <row r="383">
-      <c r="B383" s="41"/>
+      <c r="B383" s="42"/>
     </row>
     <row r="384">
-      <c r="B384" s="41"/>
+      <c r="B384" s="42"/>
     </row>
     <row r="385">
-      <c r="B385" s="41"/>
+      <c r="B385" s="42"/>
     </row>
     <row r="386">
-      <c r="B386" s="41"/>
+      <c r="B386" s="42"/>
     </row>
     <row r="387">
-      <c r="B387" s="41"/>
+      <c r="B387" s="42"/>
     </row>
     <row r="388">
-      <c r="B388" s="41"/>
+      <c r="B388" s="42"/>
     </row>
     <row r="389">
-      <c r="B389" s="41"/>
+      <c r="B389" s="42"/>
     </row>
     <row r="390">
-      <c r="B390" s="41"/>
+      <c r="B390" s="42"/>
     </row>
     <row r="391">
-      <c r="B391" s="41"/>
+      <c r="B391" s="42"/>
     </row>
     <row r="392">
-      <c r="B392" s="41"/>
+      <c r="B392" s="42"/>
     </row>
     <row r="393">
-      <c r="B393" s="41"/>
+      <c r="B393" s="42"/>
     </row>
     <row r="394">
-      <c r="B394" s="41"/>
+      <c r="B394" s="42"/>
     </row>
     <row r="395">
-      <c r="B395" s="41"/>
+      <c r="B395" s="42"/>
     </row>
     <row r="396">
-      <c r="B396" s="41"/>
+      <c r="B396" s="42"/>
     </row>
     <row r="397">
-      <c r="B397" s="41"/>
+      <c r="B397" s="42"/>
     </row>
     <row r="398">
-      <c r="B398" s="41"/>
+      <c r="B398" s="42"/>
     </row>
     <row r="399">
-      <c r="B399" s="41"/>
+      <c r="B399" s="42"/>
     </row>
     <row r="400">
-      <c r="B400" s="41"/>
+      <c r="B400" s="42"/>
     </row>
     <row r="401">
-      <c r="B401" s="41"/>
+      <c r="B401" s="42"/>
     </row>
     <row r="402">
-      <c r="B402" s="41"/>
+      <c r="B402" s="42"/>
     </row>
     <row r="403">
-      <c r="B403" s="41"/>
+      <c r="B403" s="42"/>
     </row>
     <row r="404">
-      <c r="B404" s="41"/>
+      <c r="B404" s="42"/>
     </row>
     <row r="405">
-      <c r="B405" s="41"/>
+      <c r="B405" s="42"/>
     </row>
     <row r="406">
-      <c r="B406" s="41"/>
+      <c r="B406" s="42"/>
     </row>
     <row r="407">
-      <c r="B407" s="41"/>
+      <c r="B407" s="42"/>
     </row>
     <row r="408">
-      <c r="B408" s="41"/>
+      <c r="B408" s="42"/>
     </row>
     <row r="409">
-      <c r="B409" s="41"/>
+      <c r="B409" s="42"/>
     </row>
     <row r="410">
-      <c r="B410" s="41"/>
+      <c r="B410" s="42"/>
     </row>
     <row r="411">
-      <c r="B411" s="41"/>
+      <c r="B411" s="42"/>
     </row>
     <row r="412">
-      <c r="B412" s="41"/>
+      <c r="B412" s="42"/>
     </row>
     <row r="413">
-      <c r="B413" s="41"/>
+      <c r="B413" s="42"/>
     </row>
     <row r="414">
-      <c r="B414" s="41"/>
+      <c r="B414" s="42"/>
     </row>
     <row r="415">
-      <c r="B415" s="41"/>
+      <c r="B415" s="42"/>
     </row>
     <row r="416">
-      <c r="B416" s="41"/>
+      <c r="B416" s="42"/>
     </row>
     <row r="417">
-      <c r="B417" s="41"/>
+      <c r="B417" s="42"/>
     </row>
     <row r="418">
-      <c r="B418" s="41"/>
+      <c r="B418" s="42"/>
     </row>
     <row r="419">
-      <c r="B419" s="41"/>
+      <c r="B419" s="42"/>
     </row>
     <row r="420">
-      <c r="B420" s="41"/>
+      <c r="B420" s="42"/>
     </row>
     <row r="421">
-      <c r="B421" s="41"/>
+      <c r="B421" s="42"/>
     </row>
     <row r="422">
-      <c r="B422" s="41"/>
+      <c r="B422" s="42"/>
     </row>
     <row r="423">
-      <c r="B423" s="41"/>
+      <c r="B423" s="42"/>
     </row>
     <row r="424">
-      <c r="B424" s="41"/>
+      <c r="B424" s="42"/>
     </row>
     <row r="425">
-      <c r="B425" s="41"/>
+      <c r="B425" s="42"/>
     </row>
     <row r="426">
-      <c r="B426" s="41"/>
+      <c r="B426" s="42"/>
     </row>
     <row r="427">
-      <c r="B427" s="41"/>
+      <c r="B427" s="42"/>
     </row>
     <row r="428">
-      <c r="B428" s="41"/>
+      <c r="B428" s="42"/>
     </row>
     <row r="429">
-      <c r="B429" s="41"/>
+      <c r="B429" s="42"/>
     </row>
     <row r="430">
-      <c r="B430" s="41"/>
+      <c r="B430" s="42"/>
     </row>
     <row r="431">
-      <c r="B431" s="41"/>
+      <c r="B431" s="42"/>
     </row>
     <row r="432">
-      <c r="B432" s="41"/>
+      <c r="B432" s="42"/>
     </row>
     <row r="433">
-      <c r="B433" s="41"/>
+      <c r="B433" s="42"/>
     </row>
     <row r="434">
-      <c r="B434" s="41"/>
+      <c r="B434" s="42"/>
     </row>
     <row r="435">
-      <c r="B435" s="41"/>
+      <c r="B435" s="42"/>
     </row>
     <row r="436">
-      <c r="B436" s="41"/>
+      <c r="B436" s="42"/>
     </row>
     <row r="437">
-      <c r="B437" s="41"/>
+      <c r="B437" s="42"/>
     </row>
     <row r="438">
-      <c r="B438" s="41"/>
+      <c r="B438" s="42"/>
     </row>
     <row r="439">
-      <c r="B439" s="41"/>
+      <c r="B439" s="42"/>
     </row>
     <row r="440">
-      <c r="B440" s="41"/>
+      <c r="B440" s="42"/>
     </row>
     <row r="441">
-      <c r="B441" s="41"/>
+      <c r="B441" s="42"/>
     </row>
     <row r="442">
-      <c r="B442" s="41"/>
+      <c r="B442" s="42"/>
     </row>
     <row r="443">
-      <c r="B443" s="41"/>
+      <c r="B443" s="42"/>
     </row>
     <row r="444">
-      <c r="B444" s="41"/>
+      <c r="B444" s="42"/>
     </row>
     <row r="445">
-      <c r="B445" s="41"/>
+      <c r="B445" s="42"/>
     </row>
     <row r="446">
-      <c r="B446" s="41"/>
+      <c r="B446" s="42"/>
     </row>
     <row r="447">
-      <c r="B447" s="41"/>
+      <c r="B447" s="42"/>
     </row>
     <row r="448">
-      <c r="B448" s="41"/>
+      <c r="B448" s="42"/>
     </row>
     <row r="449">
-      <c r="B449" s="41"/>
+      <c r="B449" s="42"/>
     </row>
     <row r="450">
-      <c r="B450" s="41"/>
+      <c r="B450" s="42"/>
     </row>
     <row r="451">
-      <c r="B451" s="41"/>
+      <c r="B451" s="42"/>
     </row>
     <row r="452">
-      <c r="B452" s="41"/>
+      <c r="B452" s="42"/>
     </row>
     <row r="453">
-      <c r="B453" s="41"/>
+      <c r="B453" s="42"/>
     </row>
     <row r="454">
-      <c r="B454" s="41"/>
+      <c r="B454" s="42"/>
     </row>
     <row r="455">
-      <c r="B455" s="41"/>
+      <c r="B455" s="42"/>
     </row>
     <row r="456">
-      <c r="B456" s="41"/>
+      <c r="B456" s="42"/>
     </row>
     <row r="457">
-      <c r="B457" s="41"/>
+      <c r="B457" s="42"/>
     </row>
     <row r="458">
-      <c r="B458" s="41"/>
+      <c r="B458" s="42"/>
     </row>
     <row r="459">
-      <c r="B459" s="41"/>
+      <c r="B459" s="42"/>
     </row>
     <row r="460">
-      <c r="B460" s="41"/>
+      <c r="B460" s="42"/>
     </row>
     <row r="461">
-      <c r="B461" s="41"/>
+      <c r="B461" s="42"/>
     </row>
     <row r="462">
-      <c r="B462" s="41"/>
+      <c r="B462" s="42"/>
     </row>
     <row r="463">
-      <c r="B463" s="41"/>
+      <c r="B463" s="42"/>
     </row>
     <row r="464">
-      <c r="B464" s="41"/>
+      <c r="B464" s="42"/>
     </row>
     <row r="465">
-      <c r="B465" s="41"/>
+      <c r="B465" s="42"/>
     </row>
     <row r="466">
-      <c r="B466" s="41"/>
+      <c r="B466" s="42"/>
     </row>
     <row r="467">
-      <c r="B467" s="41"/>
+      <c r="B467" s="42"/>
     </row>
     <row r="468">
-      <c r="B468" s="41"/>
+      <c r="B468" s="42"/>
     </row>
     <row r="469">
-      <c r="B469" s="41"/>
+      <c r="B469" s="42"/>
     </row>
     <row r="470">
-      <c r="B470" s="41"/>
+      <c r="B470" s="42"/>
     </row>
     <row r="471">
-      <c r="B471" s="41"/>
+      <c r="B471" s="42"/>
     </row>
     <row r="472">
-      <c r="B472" s="41"/>
+      <c r="B472" s="42"/>
     </row>
     <row r="473">
-      <c r="B473" s="41"/>
+      <c r="B473" s="42"/>
     </row>
     <row r="474">
-      <c r="B474" s="41"/>
+      <c r="B474" s="42"/>
     </row>
     <row r="475">
-      <c r="B475" s="41"/>
+      <c r="B475" s="42"/>
     </row>
     <row r="476">
-      <c r="B476" s="41"/>
+      <c r="B476" s="42"/>
     </row>
     <row r="477">
-      <c r="B477" s="41"/>
+      <c r="B477" s="42"/>
     </row>
     <row r="478">
-      <c r="B478" s="41"/>
+      <c r="B478" s="42"/>
     </row>
     <row r="479">
-      <c r="B479" s="41"/>
+      <c r="B479" s="42"/>
     </row>
     <row r="480">
-      <c r="B480" s="41"/>
+      <c r="B480" s="42"/>
     </row>
     <row r="481">
-      <c r="B481" s="41"/>
+      <c r="B481" s="42"/>
     </row>
     <row r="482">
-      <c r="B482" s="41"/>
+      <c r="B482" s="42"/>
     </row>
     <row r="483">
-      <c r="B483" s="41"/>
+      <c r="B483" s="42"/>
     </row>
     <row r="484">
-      <c r="B484" s="41"/>
+      <c r="B484" s="42"/>
     </row>
     <row r="485">
-      <c r="B485" s="41"/>
+      <c r="B485" s="42"/>
     </row>
     <row r="486">
-      <c r="B486" s="41"/>
+      <c r="B486" s="42"/>
     </row>
     <row r="487">
-      <c r="B487" s="41"/>
+      <c r="B487" s="42"/>
     </row>
     <row r="488">
-      <c r="B488" s="41"/>
+      <c r="B488" s="42"/>
     </row>
     <row r="489">
-      <c r="B489" s="41"/>
+      <c r="B489" s="42"/>
     </row>
     <row r="490">
-      <c r="B490" s="41"/>
+      <c r="B490" s="42"/>
     </row>
     <row r="491">
-      <c r="B491" s="41"/>
+      <c r="B491" s="42"/>
     </row>
     <row r="492">
-      <c r="B492" s="41"/>
+      <c r="B492" s="42"/>
     </row>
     <row r="493">
-      <c r="B493" s="41"/>
+      <c r="B493" s="42"/>
     </row>
     <row r="494">
-      <c r="B494" s="41"/>
+      <c r="B494" s="42"/>
     </row>
     <row r="495">
-      <c r="B495" s="41"/>
+      <c r="B495" s="42"/>
     </row>
     <row r="496">
-      <c r="B496" s="41"/>
+      <c r="B496" s="42"/>
     </row>
     <row r="497">
-      <c r="B497" s="41"/>
+      <c r="B497" s="42"/>
     </row>
     <row r="498">
-      <c r="B498" s="41"/>
+      <c r="B498" s="42"/>
     </row>
     <row r="499">
-      <c r="B499" s="41"/>
+      <c r="B499" s="42"/>
     </row>
     <row r="500">
-      <c r="B500" s="41"/>
+      <c r="B500" s="42"/>
     </row>
     <row r="501">
-      <c r="B501" s="41"/>
+      <c r="B501" s="42"/>
     </row>
     <row r="502">
-      <c r="B502" s="41"/>
+      <c r="B502" s="42"/>
     </row>
     <row r="503">
-      <c r="B503" s="41"/>
+      <c r="B503" s="42"/>
     </row>
     <row r="504">
-      <c r="B504" s="41"/>
+      <c r="B504" s="42"/>
     </row>
     <row r="505">
-      <c r="B505" s="41"/>
+      <c r="B505" s="42"/>
     </row>
     <row r="506">
-      <c r="B506" s="41"/>
+      <c r="B506" s="42"/>
     </row>
     <row r="507">
-      <c r="B507" s="41"/>
+      <c r="B507" s="42"/>
     </row>
     <row r="508">
-      <c r="B508" s="41"/>
+      <c r="B508" s="42"/>
     </row>
     <row r="509">
-      <c r="B509" s="41"/>
+      <c r="B509" s="42"/>
     </row>
     <row r="510">
-      <c r="B510" s="41"/>
+      <c r="B510" s="42"/>
     </row>
     <row r="511">
-      <c r="B511" s="41"/>
+      <c r="B511" s="42"/>
     </row>
     <row r="512">
-      <c r="B512" s="41"/>
+      <c r="B512" s="42"/>
     </row>
     <row r="513">
-      <c r="B513" s="41"/>
+      <c r="B513" s="42"/>
     </row>
     <row r="514">
-      <c r="B514" s="41"/>
+      <c r="B514" s="42"/>
     </row>
     <row r="515">
-      <c r="B515" s="41"/>
+      <c r="B515" s="42"/>
     </row>
     <row r="516">
-      <c r="B516" s="41"/>
+      <c r="B516" s="42"/>
     </row>
     <row r="517">
-      <c r="B517" s="41"/>
+      <c r="B517" s="42"/>
     </row>
     <row r="518">
-      <c r="B518" s="41"/>
+      <c r="B518" s="42"/>
     </row>
     <row r="519">
-      <c r="B519" s="41"/>
+      <c r="B519" s="42"/>
     </row>
     <row r="520">
-      <c r="B520" s="41"/>
+      <c r="B520" s="42"/>
     </row>
     <row r="521">
-      <c r="B521" s="41"/>
+      <c r="B521" s="42"/>
     </row>
     <row r="522">
-      <c r="B522" s="41"/>
+      <c r="B522" s="42"/>
     </row>
     <row r="523">
-      <c r="B523" s="41"/>
+      <c r="B523" s="42"/>
     </row>
     <row r="524">
-      <c r="B524" s="41"/>
+      <c r="B524" s="42"/>
     </row>
     <row r="525">
-      <c r="B525" s="41"/>
+      <c r="B525" s="42"/>
     </row>
     <row r="526">
-      <c r="B526" s="41"/>
+      <c r="B526" s="42"/>
     </row>
     <row r="527">
-      <c r="B527" s="41"/>
+      <c r="B527" s="42"/>
     </row>
     <row r="528">
-      <c r="B528" s="41"/>
+      <c r="B528" s="42"/>
     </row>
     <row r="529">
-      <c r="B529" s="41"/>
+      <c r="B529" s="42"/>
     </row>
     <row r="530">
-      <c r="B530" s="41"/>
+      <c r="B530" s="42"/>
     </row>
     <row r="531">
-      <c r="B531" s="41"/>
+      <c r="B531" s="42"/>
     </row>
     <row r="532">
-      <c r="B532" s="41"/>
+      <c r="B532" s="42"/>
     </row>
     <row r="533">
-      <c r="B533" s="41"/>
+      <c r="B533" s="42"/>
     </row>
     <row r="534">
-      <c r="B534" s="41"/>
+      <c r="B534" s="42"/>
     </row>
     <row r="535">
-      <c r="B535" s="41"/>
+      <c r="B535" s="42"/>
     </row>
     <row r="536">
-      <c r="B536" s="41"/>
+      <c r="B536" s="42"/>
     </row>
     <row r="537">
-      <c r="B537" s="41"/>
+      <c r="B537" s="42"/>
     </row>
     <row r="538">
-      <c r="B538" s="41"/>
+      <c r="B538" s="42"/>
     </row>
     <row r="539">
-      <c r="B539" s="41"/>
+      <c r="B539" s="42"/>
     </row>
     <row r="540">
-      <c r="B540" s="41"/>
+      <c r="B540" s="42"/>
     </row>
     <row r="541">
-      <c r="B541" s="41"/>
+      <c r="B541" s="42"/>
     </row>
     <row r="542">
-      <c r="B542" s="41"/>
+      <c r="B542" s="42"/>
     </row>
     <row r="543">
-      <c r="B543" s="41"/>
+      <c r="B543" s="42"/>
     </row>
     <row r="544">
-      <c r="B544" s="41"/>
+      <c r="B544" s="42"/>
     </row>
     <row r="545">
-      <c r="B545" s="41"/>
+      <c r="B545" s="42"/>
     </row>
     <row r="546">
-      <c r="B546" s="41"/>
+      <c r="B546" s="42"/>
     </row>
     <row r="547">
-      <c r="B547" s="41"/>
+      <c r="B547" s="42"/>
     </row>
     <row r="548">
-      <c r="B548" s="41"/>
+      <c r="B548" s="42"/>
     </row>
     <row r="549">
-      <c r="B549" s="41"/>
+      <c r="B549" s="42"/>
     </row>
     <row r="550">
-      <c r="B550" s="41"/>
+      <c r="B550" s="42"/>
     </row>
     <row r="551">
-      <c r="B551" s="41"/>
+      <c r="B551" s="42"/>
     </row>
     <row r="552">
-      <c r="B552" s="41"/>
+      <c r="B552" s="42"/>
     </row>
     <row r="553">
-      <c r="B553" s="41"/>
+      <c r="B553" s="42"/>
     </row>
     <row r="554">
-      <c r="B554" s="41"/>
+      <c r="B554" s="42"/>
     </row>
     <row r="555">
-      <c r="B555" s="41"/>
+      <c r="B555" s="42"/>
     </row>
     <row r="556">
-      <c r="B556" s="41"/>
+      <c r="B556" s="42"/>
     </row>
     <row r="557">
-      <c r="B557" s="41"/>
+      <c r="B557" s="42"/>
     </row>
     <row r="558">
-      <c r="B558" s="41"/>
+      <c r="B558" s="42"/>
     </row>
     <row r="559">
-      <c r="B559" s="41"/>
+      <c r="B559" s="42"/>
     </row>
     <row r="560">
-      <c r="B560" s="41"/>
+      <c r="B560" s="42"/>
     </row>
     <row r="561">
-      <c r="B561" s="41"/>
+      <c r="B561" s="42"/>
     </row>
     <row r="562">
-      <c r="B562" s="41"/>
+      <c r="B562" s="42"/>
     </row>
     <row r="563">
-      <c r="B563" s="41"/>
+      <c r="B563" s="42"/>
     </row>
     <row r="564">
-      <c r="B564" s="41"/>
+      <c r="B564" s="42"/>
     </row>
     <row r="565">
-      <c r="B565" s="41"/>
+      <c r="B565" s="42"/>
     </row>
     <row r="566">
-      <c r="B566" s="41"/>
+      <c r="B566" s="42"/>
     </row>
     <row r="567">
-      <c r="B567" s="41"/>
+      <c r="B567" s="42"/>
     </row>
     <row r="568">
-      <c r="B568" s="41"/>
+      <c r="B568" s="42"/>
     </row>
     <row r="569">
-      <c r="B569" s="41"/>
+      <c r="B569" s="42"/>
     </row>
     <row r="570">
-      <c r="B570" s="41"/>
+      <c r="B570" s="42"/>
     </row>
     <row r="571">
-      <c r="B571" s="41"/>
+      <c r="B571" s="42"/>
     </row>
     <row r="572">
-      <c r="B572" s="41"/>
+      <c r="B572" s="42"/>
     </row>
     <row r="573">
-      <c r="B573" s="41"/>
+      <c r="B573" s="42"/>
     </row>
     <row r="574">
-      <c r="B574" s="41"/>
+      <c r="B574" s="42"/>
     </row>
     <row r="575">
-      <c r="B575" s="41"/>
+      <c r="B575" s="42"/>
     </row>
     <row r="576">
-      <c r="B576" s="41"/>
+      <c r="B576" s="42"/>
     </row>
     <row r="577">
-      <c r="B577" s="41"/>
+      <c r="B577" s="42"/>
     </row>
     <row r="578">
-      <c r="B578" s="41"/>
+      <c r="B578" s="42"/>
     </row>
     <row r="579">
-      <c r="B579" s="41"/>
+      <c r="B579" s="42"/>
     </row>
     <row r="580">
-      <c r="B580" s="41"/>
+      <c r="B580" s="42"/>
     </row>
     <row r="581">
-      <c r="B581" s="41"/>
+      <c r="B581" s="42"/>
     </row>
     <row r="582">
-      <c r="B582" s="41"/>
+      <c r="B582" s="42"/>
     </row>
     <row r="583">
-      <c r="B583" s="41"/>
+      <c r="B583" s="42"/>
     </row>
     <row r="584">
-      <c r="B584" s="41"/>
+      <c r="B584" s="42"/>
     </row>
     <row r="585">
-      <c r="B585" s="41"/>
+      <c r="B585" s="42"/>
     </row>
     <row r="586">
-      <c r="B586" s="41"/>
+      <c r="B586" s="42"/>
     </row>
     <row r="587">
-      <c r="B587" s="41"/>
+      <c r="B587" s="42"/>
     </row>
     <row r="588">
-      <c r="B588" s="41"/>
+      <c r="B588" s="42"/>
     </row>
     <row r="589">
-      <c r="B589" s="41"/>
+      <c r="B589" s="42"/>
     </row>
     <row r="590">
-      <c r="B590" s="41"/>
+      <c r="B590" s="42"/>
     </row>
     <row r="591">
-      <c r="B591" s="41"/>
+      <c r="B591" s="42"/>
     </row>
     <row r="592">
-      <c r="B592" s="41"/>
+      <c r="B592" s="42"/>
     </row>
     <row r="593">
-      <c r="B593" s="41"/>
+      <c r="B593" s="42"/>
     </row>
     <row r="594">
-      <c r="B594" s="41"/>
+      <c r="B594" s="42"/>
     </row>
     <row r="595">
-      <c r="B595" s="41"/>
+      <c r="B595" s="42"/>
     </row>
     <row r="596">
-      <c r="B596" s="41"/>
+      <c r="B596" s="42"/>
     </row>
     <row r="597">
-      <c r="B597" s="41"/>
+      <c r="B597" s="42"/>
     </row>
     <row r="598">
-      <c r="B598" s="41"/>
+      <c r="B598" s="42"/>
     </row>
     <row r="599">
-      <c r="B599" s="41"/>
+      <c r="B599" s="42"/>
     </row>
     <row r="600">
-      <c r="B600" s="41"/>
+      <c r="B600" s="42"/>
     </row>
     <row r="601">
-      <c r="B601" s="41"/>
+      <c r="B601" s="42"/>
     </row>
     <row r="602">
-      <c r="B602" s="41"/>
+      <c r="B602" s="42"/>
     </row>
     <row r="603">
-      <c r="B603" s="41"/>
+      <c r="B603" s="42"/>
     </row>
     <row r="604">
-      <c r="B604" s="41"/>
+      <c r="B604" s="42"/>
     </row>
     <row r="605">
-      <c r="B605" s="41"/>
+      <c r="B605" s="42"/>
     </row>
     <row r="606">
-      <c r="B606" s="41"/>
+      <c r="B606" s="42"/>
     </row>
     <row r="607">
-      <c r="B607" s="41"/>
+      <c r="B607" s="42"/>
     </row>
     <row r="608">
-      <c r="B608" s="41"/>
+      <c r="B608" s="42"/>
     </row>
     <row r="609">
-      <c r="B609" s="41"/>
+      <c r="B609" s="42"/>
     </row>
     <row r="610">
-      <c r="B610" s="41"/>
+      <c r="B610" s="42"/>
     </row>
     <row r="611">
-      <c r="B611" s="41"/>
+      <c r="B611" s="42"/>
     </row>
     <row r="612">
-      <c r="B612" s="41"/>
+      <c r="B612" s="42"/>
     </row>
     <row r="613">
-      <c r="B613" s="41"/>
+      <c r="B613" s="42"/>
     </row>
     <row r="614">
-      <c r="B614" s="41"/>
+      <c r="B614" s="42"/>
     </row>
     <row r="615">
-      <c r="B615" s="41"/>
+      <c r="B615" s="42"/>
     </row>
     <row r="616">
-      <c r="B616" s="41"/>
+      <c r="B616" s="42"/>
     </row>
     <row r="617">
-      <c r="B617" s="41"/>
+      <c r="B617" s="42"/>
     </row>
     <row r="618">
-      <c r="B618" s="41"/>
+      <c r="B618" s="42"/>
     </row>
     <row r="619">
-      <c r="B619" s="41"/>
+      <c r="B619" s="42"/>
     </row>
     <row r="620">
-      <c r="B620" s="41"/>
+      <c r="B620" s="42"/>
     </row>
     <row r="621">
-      <c r="B621" s="41"/>
+      <c r="B621" s="42"/>
     </row>
     <row r="622">
-      <c r="B622" s="41"/>
+      <c r="B622" s="42"/>
     </row>
     <row r="623">
-      <c r="B623" s="41"/>
+      <c r="B623" s="42"/>
     </row>
     <row r="624">
-      <c r="B624" s="41"/>
+      <c r="B624" s="42"/>
     </row>
     <row r="625">
-      <c r="B625" s="41"/>
+      <c r="B625" s="42"/>
     </row>
     <row r="626">
-      <c r="B626" s="41"/>
+      <c r="B626" s="42"/>
     </row>
     <row r="627">
-      <c r="B627" s="41"/>
+      <c r="B627" s="42"/>
     </row>
     <row r="628">
-      <c r="B628" s="41"/>
+      <c r="B628" s="42"/>
     </row>
     <row r="629">
-      <c r="B629" s="41"/>
+      <c r="B629" s="42"/>
     </row>
     <row r="630">
-      <c r="B630" s="41"/>
+      <c r="B630" s="42"/>
     </row>
     <row r="631">
-      <c r="B631" s="41"/>
+      <c r="B631" s="42"/>
     </row>
     <row r="632">
-      <c r="B632" s="41"/>
+      <c r="B632" s="42"/>
     </row>
     <row r="633">
-      <c r="B633" s="41"/>
+      <c r="B633" s="42"/>
     </row>
     <row r="634">
-      <c r="B634" s="41"/>
+      <c r="B634" s="42"/>
     </row>
     <row r="635">
-      <c r="B635" s="41"/>
+      <c r="B635" s="42"/>
     </row>
     <row r="636">
-      <c r="B636" s="41"/>
+      <c r="B636" s="42"/>
     </row>
     <row r="637">
-      <c r="B637" s="41"/>
+      <c r="B637" s="42"/>
     </row>
     <row r="638">
-      <c r="B638" s="41"/>
+      <c r="B638" s="42"/>
     </row>
     <row r="639">
-      <c r="B639" s="41"/>
+      <c r="B639" s="42"/>
     </row>
     <row r="640">
-      <c r="B640" s="41"/>
+      <c r="B640" s="42"/>
     </row>
     <row r="641">
-      <c r="B641" s="41"/>
+      <c r="B641" s="42"/>
     </row>
     <row r="642">
-      <c r="B642" s="41"/>
+      <c r="B642" s="42"/>
     </row>
     <row r="643">
-      <c r="B643" s="41"/>
+      <c r="B643" s="42"/>
     </row>
     <row r="644">
-      <c r="B644" s="41"/>
+      <c r="B644" s="42"/>
     </row>
     <row r="645">
-      <c r="B645" s="41"/>
+      <c r="B645" s="42"/>
     </row>
     <row r="646">
-      <c r="B646" s="41"/>
+      <c r="B646" s="42"/>
     </row>
     <row r="647">
-      <c r="B647" s="41"/>
+      <c r="B647" s="42"/>
     </row>
     <row r="648">
-      <c r="B648" s="41"/>
+      <c r="B648" s="42"/>
     </row>
     <row r="649">
-      <c r="B649" s="41"/>
+      <c r="B649" s="42"/>
     </row>
     <row r="650">
-      <c r="B650" s="41"/>
+      <c r="B650" s="42"/>
     </row>
     <row r="651">
-      <c r="B651" s="41"/>
+      <c r="B651" s="42"/>
     </row>
     <row r="652">
-      <c r="B652" s="41"/>
+      <c r="B652" s="42"/>
     </row>
     <row r="653">
-      <c r="B653" s="41"/>
+      <c r="B653" s="42"/>
     </row>
     <row r="654">
-      <c r="B654" s="41"/>
+      <c r="B654" s="42"/>
     </row>
     <row r="655">
-      <c r="B655" s="41"/>
+      <c r="B655" s="42"/>
     </row>
     <row r="656">
-      <c r="B656" s="41"/>
+      <c r="B656" s="42"/>
     </row>
     <row r="657">
-      <c r="B657" s="41"/>
+      <c r="B657" s="42"/>
     </row>
     <row r="658">
-      <c r="B658" s="41"/>
+      <c r="B658" s="42"/>
     </row>
     <row r="659">
-      <c r="B659" s="41"/>
+      <c r="B659" s="42"/>
     </row>
     <row r="660">
-      <c r="B660" s="41"/>
+      <c r="B660" s="42"/>
     </row>
     <row r="661">
-      <c r="B661" s="41"/>
+      <c r="B661" s="42"/>
     </row>
     <row r="662">
-      <c r="B662" s="41"/>
+      <c r="B662" s="42"/>
     </row>
     <row r="663">
-      <c r="B663" s="41"/>
+      <c r="B663" s="42"/>
     </row>
     <row r="664">
-      <c r="B664" s="41"/>
+      <c r="B664" s="42"/>
     </row>
     <row r="665">
-      <c r="B665" s="41"/>
+      <c r="B665" s="42"/>
     </row>
     <row r="666">
-      <c r="B666" s="41"/>
+      <c r="B666" s="42"/>
     </row>
     <row r="667">
-      <c r="B667" s="41"/>
+      <c r="B667" s="42"/>
     </row>
     <row r="668">
-      <c r="B668" s="41"/>
+      <c r="B668" s="42"/>
     </row>
     <row r="669">
-      <c r="B669" s="41"/>
+      <c r="B669" s="42"/>
     </row>
     <row r="670">
-      <c r="B670" s="41"/>
+      <c r="B670" s="42"/>
     </row>
     <row r="671">
-      <c r="B671" s="41"/>
+      <c r="B671" s="42"/>
     </row>
     <row r="672">
-      <c r="B672" s="41"/>
+      <c r="B672" s="42"/>
     </row>
     <row r="673">
-      <c r="B673" s="41"/>
+      <c r="B673" s="42"/>
     </row>
     <row r="674">
-      <c r="B674" s="41"/>
+      <c r="B674" s="42"/>
     </row>
     <row r="675">
-      <c r="B675" s="41"/>
+      <c r="B675" s="42"/>
     </row>
     <row r="676">
-      <c r="B676" s="41"/>
+      <c r="B676" s="42"/>
     </row>
     <row r="677">
-      <c r="B677" s="41"/>
+      <c r="B677" s="42"/>
     </row>
     <row r="678">
-      <c r="B678" s="41"/>
+      <c r="B678" s="42"/>
     </row>
     <row r="679">
-      <c r="B679" s="41"/>
+      <c r="B679" s="42"/>
     </row>
     <row r="680">
-      <c r="B680" s="41"/>
+      <c r="B680" s="42"/>
     </row>
     <row r="681">
-      <c r="B681" s="41"/>
+      <c r="B681" s="42"/>
     </row>
     <row r="682">
-      <c r="B682" s="41"/>
+      <c r="B682" s="42"/>
     </row>
     <row r="683">
-      <c r="B683" s="41"/>
+      <c r="B683" s="42"/>
     </row>
     <row r="684">
-      <c r="B684" s="41"/>
+      <c r="B684" s="42"/>
     </row>
     <row r="685">
-      <c r="B685" s="41"/>
+      <c r="B685" s="42"/>
     </row>
     <row r="686">
-      <c r="B686" s="41"/>
+      <c r="B686" s="42"/>
     </row>
     <row r="687">
-      <c r="B687" s="41"/>
+      <c r="B687" s="42"/>
     </row>
     <row r="688">
-      <c r="B688" s="41"/>
+      <c r="B688" s="42"/>
     </row>
     <row r="689">
-      <c r="B689" s="41"/>
+      <c r="B689" s="42"/>
     </row>
     <row r="690">
-      <c r="B690" s="41"/>
+      <c r="B690" s="42"/>
     </row>
     <row r="691">
-      <c r="B691" s="41"/>
+      <c r="B691" s="42"/>
     </row>
     <row r="692">
-      <c r="B692" s="41"/>
+      <c r="B692" s="42"/>
     </row>
     <row r="693">
-      <c r="B693" s="41"/>
+      <c r="B693" s="42"/>
     </row>
     <row r="694">
-      <c r="B694" s="41"/>
+      <c r="B694" s="42"/>
     </row>
     <row r="695">
-      <c r="B695" s="41"/>
+      <c r="B695" s="42"/>
     </row>
     <row r="696">
-      <c r="B696" s="41"/>
+      <c r="B696" s="42"/>
     </row>
     <row r="697">
-      <c r="B697" s="41"/>
+      <c r="B697" s="42"/>
     </row>
     <row r="698">
-      <c r="B698" s="41"/>
+      <c r="B698" s="42"/>
     </row>
     <row r="699">
-      <c r="B699" s="41"/>
+      <c r="B699" s="42"/>
     </row>
     <row r="700">
-      <c r="B700" s="41"/>
+      <c r="B700" s="42"/>
     </row>
     <row r="701">
-      <c r="B701" s="41"/>
+      <c r="B701" s="42"/>
     </row>
     <row r="702">
-      <c r="B702" s="41"/>
+      <c r="B702" s="42"/>
     </row>
     <row r="703">
-      <c r="B703" s="41"/>
+      <c r="B703" s="42"/>
     </row>
     <row r="704">
-      <c r="B704" s="41"/>
+      <c r="B704" s="42"/>
     </row>
     <row r="705">
-      <c r="B705" s="41"/>
+      <c r="B705" s="42"/>
     </row>
     <row r="706">
-      <c r="B706" s="41"/>
+      <c r="B706" s="42"/>
     </row>
     <row r="707">
-      <c r="B707" s="41"/>
+      <c r="B707" s="42"/>
     </row>
     <row r="708">
-      <c r="B708" s="41"/>
+      <c r="B708" s="42"/>
     </row>
     <row r="709">
-      <c r="B709" s="41"/>
+      <c r="B709" s="42"/>
     </row>
     <row r="710">
-      <c r="B710" s="41"/>
+      <c r="B710" s="42"/>
     </row>
     <row r="711">
-      <c r="B711" s="41"/>
+      <c r="B711" s="42"/>
     </row>
     <row r="712">
-      <c r="B712" s="41"/>
+      <c r="B712" s="42"/>
     </row>
     <row r="713">
-      <c r="B713" s="41"/>
+      <c r="B713" s="42"/>
     </row>
     <row r="714">
-      <c r="B714" s="41"/>
+      <c r="B714" s="42"/>
     </row>
     <row r="715">
-      <c r="B715" s="41"/>
+      <c r="B715" s="42"/>
     </row>
     <row r="716">
-      <c r="B716" s="41"/>
+      <c r="B716" s="42"/>
     </row>
     <row r="717">
-      <c r="B717" s="41"/>
+      <c r="B717" s="42"/>
     </row>
     <row r="718">
-      <c r="B718" s="41"/>
+      <c r="B718" s="42"/>
     </row>
     <row r="719">
-      <c r="B719" s="41"/>
+      <c r="B719" s="42"/>
     </row>
     <row r="720">
-      <c r="B720" s="41"/>
+      <c r="B720" s="42"/>
     </row>
     <row r="721">
-      <c r="B721" s="41"/>
+      <c r="B721" s="42"/>
     </row>
     <row r="722">
-      <c r="B722" s="41"/>
+      <c r="B722" s="42"/>
     </row>
     <row r="723">
-      <c r="B723" s="41"/>
+      <c r="B723" s="42"/>
     </row>
     <row r="724">
-      <c r="B724" s="41"/>
+      <c r="B724" s="42"/>
     </row>
     <row r="725">
-      <c r="B725" s="41"/>
+      <c r="B725" s="42"/>
     </row>
     <row r="726">
-      <c r="B726" s="41"/>
+      <c r="B726" s="42"/>
     </row>
     <row r="727">
-      <c r="B727" s="41"/>
+      <c r="B727" s="42"/>
     </row>
     <row r="728">
-      <c r="B728" s="41"/>
+      <c r="B728" s="42"/>
     </row>
     <row r="729">
-      <c r="B729" s="41"/>
+      <c r="B729" s="42"/>
     </row>
     <row r="730">
-      <c r="B730" s="41"/>
+      <c r="B730" s="42"/>
     </row>
     <row r="731">
-      <c r="B731" s="41"/>
+      <c r="B731" s="42"/>
     </row>
     <row r="732">
-      <c r="B732" s="41"/>
+      <c r="B732" s="42"/>
     </row>
     <row r="733">
-      <c r="B733" s="41"/>
+      <c r="B733" s="42"/>
     </row>
     <row r="734">
-      <c r="B734" s="41"/>
+      <c r="B734" s="42"/>
     </row>
     <row r="735">
-      <c r="B735" s="41"/>
+      <c r="B735" s="42"/>
     </row>
     <row r="736">
-      <c r="B736" s="41"/>
+      <c r="B736" s="42"/>
     </row>
     <row r="737">
-      <c r="B737" s="41"/>
+      <c r="B737" s="42"/>
     </row>
     <row r="738">
-      <c r="B738" s="41"/>
+      <c r="B738" s="42"/>
     </row>
     <row r="739">
-      <c r="B739" s="41"/>
+      <c r="B739" s="42"/>
     </row>
     <row r="740">
-      <c r="B740" s="41"/>
+      <c r="B740" s="42"/>
     </row>
     <row r="741">
-      <c r="B741" s="41"/>
+      <c r="B741" s="42"/>
     </row>
     <row r="742">
-      <c r="B742" s="41"/>
+      <c r="B742" s="42"/>
     </row>
     <row r="743">
-      <c r="B743" s="41"/>
+      <c r="B743" s="42"/>
     </row>
     <row r="744">
-      <c r="B744" s="41"/>
+      <c r="B744" s="42"/>
     </row>
     <row r="745">
-      <c r="B745" s="41"/>
+      <c r="B745" s="42"/>
     </row>
     <row r="746">
-      <c r="B746" s="41"/>
+      <c r="B746" s="42"/>
     </row>
     <row r="747">
-      <c r="B747" s="41"/>
+      <c r="B747" s="42"/>
     </row>
     <row r="748">
-      <c r="B748" s="41"/>
+      <c r="B748" s="42"/>
     </row>
     <row r="749">
-      <c r="B749" s="41"/>
+      <c r="B749" s="42"/>
     </row>
     <row r="750">
-      <c r="B750" s="41"/>
+      <c r="B750" s="42"/>
     </row>
     <row r="751">
-      <c r="B751" s="41"/>
+      <c r="B751" s="42"/>
     </row>
     <row r="752">
-      <c r="B752" s="41"/>
+      <c r="B752" s="42"/>
     </row>
     <row r="753">
-      <c r="B753" s="41"/>
+      <c r="B753" s="42"/>
     </row>
     <row r="754">
-      <c r="B754" s="41"/>
+      <c r="B754" s="42"/>
     </row>
     <row r="755">
-      <c r="B755" s="41"/>
+      <c r="B755" s="42"/>
     </row>
     <row r="756">
-      <c r="B756" s="41"/>
+      <c r="B756" s="42"/>
     </row>
     <row r="757">
-      <c r="B757" s="41"/>
+      <c r="B757" s="42"/>
     </row>
     <row r="758">
-      <c r="B758" s="41"/>
+      <c r="B758" s="42"/>
     </row>
     <row r="759">
-      <c r="B759" s="41"/>
+      <c r="B759" s="42"/>
     </row>
     <row r="760">
-      <c r="B760" s="41"/>
+      <c r="B760" s="42"/>
     </row>
     <row r="761">
-      <c r="B761" s="41"/>
+      <c r="B761" s="42"/>
     </row>
     <row r="762">
-      <c r="B762" s="41"/>
+      <c r="B762" s="42"/>
     </row>
     <row r="763">
-      <c r="B763" s="41"/>
+      <c r="B763" s="42"/>
     </row>
     <row r="764">
-      <c r="B764" s="41"/>
+      <c r="B764" s="42"/>
     </row>
     <row r="765">
-      <c r="B765" s="41"/>
+      <c r="B765" s="42"/>
     </row>
     <row r="766">
-      <c r="B766" s="41"/>
+      <c r="B766" s="42"/>
     </row>
     <row r="767">
-      <c r="B767" s="41"/>
+      <c r="B767" s="42"/>
     </row>
     <row r="768">
-      <c r="B768" s="41"/>
+      <c r="B768" s="42"/>
     </row>
     <row r="769">
-      <c r="B769" s="41"/>
+      <c r="B769" s="42"/>
     </row>
     <row r="770">
-      <c r="B770" s="41"/>
+      <c r="B770" s="42"/>
     </row>
     <row r="771">
-      <c r="B771" s="41"/>
+      <c r="B771" s="42"/>
     </row>
     <row r="772">
-      <c r="B772" s="41"/>
+      <c r="B772" s="42"/>
     </row>
     <row r="773">
-      <c r="B773" s="41"/>
+      <c r="B773" s="42"/>
     </row>
     <row r="774">
-      <c r="B774" s="41"/>
+      <c r="B774" s="42"/>
     </row>
     <row r="775">
-      <c r="B775" s="41"/>
+      <c r="B775" s="42"/>
     </row>
     <row r="776">
-      <c r="B776" s="41"/>
+      <c r="B776" s="42"/>
     </row>
     <row r="777">
-      <c r="B777" s="41"/>
+      <c r="B777" s="42"/>
     </row>
     <row r="778">
-      <c r="B778" s="41"/>
+      <c r="B778" s="42"/>
     </row>
     <row r="779">
-      <c r="B779" s="41"/>
+      <c r="B779" s="42"/>
     </row>
     <row r="780">
-      <c r="B780" s="41"/>
+      <c r="B780" s="42"/>
     </row>
     <row r="781">
-      <c r="B781" s="41"/>
+      <c r="B781" s="42"/>
     </row>
     <row r="782">
-      <c r="B782" s="41"/>
+      <c r="B782" s="42"/>
     </row>
     <row r="783">
-      <c r="B783" s="41"/>
+      <c r="B783" s="42"/>
     </row>
     <row r="784">
-      <c r="B784" s="41"/>
+      <c r="B784" s="42"/>
     </row>
     <row r="785">
-      <c r="B785" s="41"/>
+      <c r="B785" s="42"/>
     </row>
     <row r="786">
-      <c r="B786" s="41"/>
+      <c r="B786" s="42"/>
     </row>
     <row r="787">
-      <c r="B787" s="41"/>
+      <c r="B787" s="42"/>
     </row>
     <row r="788">
-      <c r="B788" s="41"/>
+      <c r="B788" s="42"/>
     </row>
     <row r="789">
-      <c r="B789" s="41"/>
+      <c r="B789" s="42"/>
     </row>
     <row r="790">
-      <c r="B790" s="41"/>
+      <c r="B790" s="42"/>
     </row>
     <row r="791">
-      <c r="B791" s="41"/>
+      <c r="B791" s="42"/>
     </row>
     <row r="792">
-      <c r="B792" s="41"/>
+      <c r="B792" s="42"/>
     </row>
     <row r="793">
-      <c r="B793" s="41"/>
+      <c r="B793" s="42"/>
     </row>
     <row r="794">
-      <c r="B794" s="41"/>
+      <c r="B794" s="42"/>
     </row>
     <row r="795">
-      <c r="B795" s="41"/>
+      <c r="B795" s="42"/>
     </row>
     <row r="796">
-      <c r="B796" s="41"/>
+      <c r="B796" s="42"/>
     </row>
     <row r="797">
-      <c r="B797" s="41"/>
+      <c r="B797" s="42"/>
     </row>
     <row r="798">
-      <c r="B798" s="41"/>
+      <c r="B798" s="42"/>
     </row>
     <row r="799">
-      <c r="B799" s="41"/>
+      <c r="B799" s="42"/>
     </row>
     <row r="800">
-      <c r="B800" s="41"/>
+      <c r="B800" s="42"/>
     </row>
     <row r="801">
-      <c r="B801" s="41"/>
+      <c r="B801" s="42"/>
     </row>
     <row r="802">
-      <c r="B802" s="41"/>
+      <c r="B802" s="42"/>
     </row>
     <row r="803">
-      <c r="B803" s="41"/>
+      <c r="B803" s="42"/>
     </row>
     <row r="804">
-      <c r="B804" s="41"/>
+      <c r="B804" s="42"/>
     </row>
     <row r="805">
-      <c r="B805" s="41"/>
+      <c r="B805" s="42"/>
     </row>
     <row r="806">
-      <c r="B806" s="41"/>
+      <c r="B806" s="42"/>
     </row>
     <row r="807">
-      <c r="B807" s="41"/>
+      <c r="B807" s="42"/>
     </row>
     <row r="808">
-      <c r="B808" s="41"/>
+      <c r="B808" s="42"/>
     </row>
     <row r="809">
-      <c r="B809" s="41"/>
+      <c r="B809" s="42"/>
     </row>
     <row r="810">
-      <c r="B810" s="41"/>
+      <c r="B810" s="42"/>
     </row>
     <row r="811">
-      <c r="B811" s="41"/>
+      <c r="B811" s="42"/>
     </row>
     <row r="812">
-      <c r="B812" s="41"/>
+      <c r="B812" s="42"/>
     </row>
     <row r="813">
-      <c r="B813" s="41"/>
+      <c r="B813" s="42"/>
     </row>
     <row r="814">
-      <c r="B814" s="41"/>
+      <c r="B814" s="42"/>
     </row>
     <row r="815">
-      <c r="B815" s="41"/>
+      <c r="B815" s="42"/>
     </row>
     <row r="816">
-      <c r="B816" s="41"/>
+      <c r="B816" s="42"/>
     </row>
     <row r="817">
-      <c r="B817" s="41"/>
+      <c r="B817" s="42"/>
     </row>
     <row r="818">
-      <c r="B818" s="41"/>
+      <c r="B818" s="42"/>
     </row>
     <row r="819">
-      <c r="B819" s="41"/>
+      <c r="B819" s="42"/>
     </row>
     <row r="820">
-      <c r="B820" s="41"/>
+      <c r="B820" s="42"/>
     </row>
     <row r="821">
-      <c r="B821" s="41"/>
+      <c r="B821" s="42"/>
     </row>
     <row r="822">
-      <c r="B822" s="41"/>
+      <c r="B822" s="42"/>
     </row>
     <row r="823">
-      <c r="B823" s="41"/>
+      <c r="B823" s="42"/>
     </row>
     <row r="824">
-      <c r="B824" s="41"/>
+      <c r="B824" s="42"/>
     </row>
     <row r="825">
-      <c r="B825" s="41"/>
+      <c r="B825" s="42"/>
     </row>
     <row r="826">
-      <c r="B826" s="41"/>
+      <c r="B826" s="42"/>
     </row>
     <row r="827">
-      <c r="B827" s="41"/>
+      <c r="B827" s="42"/>
     </row>
     <row r="828">
-      <c r="B828" s="41"/>
+      <c r="B828" s="42"/>
     </row>
     <row r="829">
-      <c r="B829" s="41"/>
+      <c r="B829" s="42"/>
     </row>
     <row r="830">
-      <c r="B830" s="41"/>
+      <c r="B830" s="42"/>
     </row>
     <row r="831">
-      <c r="B831" s="41"/>
+      <c r="B831" s="42"/>
     </row>
     <row r="832">
-      <c r="B832" s="41"/>
+      <c r="B832" s="42"/>
     </row>
     <row r="833">
-      <c r="B833" s="41"/>
+      <c r="B833" s="42"/>
     </row>
     <row r="834">
-      <c r="B834" s="41"/>
+      <c r="B834" s="42"/>
     </row>
     <row r="835">
-      <c r="B835" s="41"/>
+      <c r="B835" s="42"/>
     </row>
     <row r="836">
-      <c r="B836" s="41"/>
+      <c r="B836" s="42"/>
     </row>
     <row r="837">
-      <c r="B837" s="41"/>
+      <c r="B837" s="42"/>
     </row>
     <row r="838">
-      <c r="B838" s="41"/>
+      <c r="B838" s="42"/>
     </row>
     <row r="839">
-      <c r="B839" s="41"/>
+      <c r="B839" s="42"/>
     </row>
     <row r="840">
-      <c r="B840" s="41"/>
+      <c r="B840" s="42"/>
     </row>
     <row r="841">
-      <c r="B841" s="41"/>
+      <c r="B841" s="42"/>
     </row>
     <row r="842">
-      <c r="B842" s="41"/>
+      <c r="B842" s="42"/>
     </row>
     <row r="843">
-      <c r="B843" s="41"/>
+      <c r="B843" s="42"/>
     </row>
     <row r="844">
-      <c r="B844" s="41"/>
+      <c r="B844" s="42"/>
     </row>
     <row r="845">
-      <c r="B845" s="41"/>
+      <c r="B845" s="42"/>
     </row>
     <row r="846">
-      <c r="B846" s="41"/>
+      <c r="B846" s="42"/>
     </row>
     <row r="847">
-      <c r="B847" s="41"/>
+      <c r="B847" s="42"/>
     </row>
     <row r="848">
-      <c r="B848" s="41"/>
+      <c r="B848" s="42"/>
     </row>
     <row r="849">
-      <c r="B849" s="41"/>
+      <c r="B849" s="42"/>
     </row>
     <row r="850">
-      <c r="B850" s="41"/>
+      <c r="B850" s="42"/>
     </row>
     <row r="851">
-      <c r="B851" s="41"/>
+      <c r="B851" s="42"/>
     </row>
     <row r="852">
-      <c r="B852" s="41"/>
+      <c r="B852" s="42"/>
     </row>
     <row r="853">
-      <c r="B853" s="41"/>
+      <c r="B853" s="42"/>
     </row>
     <row r="854">
-      <c r="B854" s="41"/>
+      <c r="B854" s="42"/>
     </row>
     <row r="855">
-      <c r="B855" s="41"/>
+      <c r="B855" s="42"/>
     </row>
     <row r="856">
-      <c r="B856" s="41"/>
+      <c r="B856" s="42"/>
     </row>
     <row r="857">
-      <c r="B857" s="41"/>
+      <c r="B857" s="42"/>
     </row>
     <row r="858">
-      <c r="B858" s="41"/>
+      <c r="B858" s="42"/>
     </row>
     <row r="859">
-      <c r="B859" s="41"/>
+      <c r="B859" s="42"/>
     </row>
     <row r="860">
-      <c r="B860" s="41"/>
+      <c r="B860" s="42"/>
     </row>
     <row r="861">
-      <c r="B861" s="41"/>
+      <c r="B861" s="42"/>
     </row>
     <row r="862">
-      <c r="B862" s="41"/>
+      <c r="B862" s="42"/>
     </row>
     <row r="863">
-      <c r="B863" s="41"/>
+      <c r="B863" s="42"/>
     </row>
     <row r="864">
-      <c r="B864" s="41"/>
+      <c r="B864" s="42"/>
     </row>
     <row r="865">
-      <c r="B865" s="41"/>
+      <c r="B865" s="42"/>
     </row>
     <row r="866">
-      <c r="B866" s="41"/>
+      <c r="B866" s="42"/>
     </row>
     <row r="867">
-      <c r="B867" s="41"/>
+      <c r="B867" s="42"/>
     </row>
     <row r="868">
-      <c r="B868" s="41"/>
+      <c r="B868" s="42"/>
     </row>
     <row r="869">
-      <c r="B869" s="41"/>
+      <c r="B869" s="42"/>
     </row>
     <row r="870">
-      <c r="B870" s="41"/>
+      <c r="B870" s="42"/>
     </row>
     <row r="871">
-      <c r="B871" s="41"/>
+      <c r="B871" s="42"/>
     </row>
     <row r="872">
-      <c r="B872" s="41"/>
+      <c r="B872" s="42"/>
     </row>
     <row r="873">
-      <c r="B873" s="41"/>
+      <c r="B873" s="42"/>
     </row>
     <row r="874">
-      <c r="B874" s="41"/>
+      <c r="B874" s="42"/>
     </row>
     <row r="875">
-      <c r="B875" s="41"/>
+      <c r="B875" s="42"/>
     </row>
     <row r="876">
-      <c r="B876" s="41"/>
+      <c r="B876" s="42"/>
     </row>
     <row r="877">
-      <c r="B877" s="41"/>
+      <c r="B877" s="42"/>
     </row>
     <row r="878">
-      <c r="B878" s="41"/>
+      <c r="B878" s="42"/>
     </row>
     <row r="879">
-      <c r="B879" s="41"/>
+      <c r="B879" s="42"/>
     </row>
     <row r="880">
-      <c r="B880" s="41"/>
+      <c r="B880" s="42"/>
     </row>
     <row r="881">
-      <c r="B881" s="41"/>
+      <c r="B881" s="42"/>
     </row>
     <row r="882">
-      <c r="B882" s="41"/>
+      <c r="B882" s="42"/>
     </row>
     <row r="883">
-      <c r="B883" s="41"/>
+      <c r="B883" s="42"/>
     </row>
     <row r="884">
-      <c r="B884" s="41"/>
+      <c r="B884" s="42"/>
     </row>
     <row r="885">
-      <c r="B885" s="41"/>
+      <c r="B885" s="42"/>
     </row>
     <row r="886">
-      <c r="B886" s="41"/>
+      <c r="B886" s="42"/>
     </row>
     <row r="887">
-      <c r="B887" s="41"/>
+      <c r="B887" s="42"/>
     </row>
     <row r="888">
-      <c r="B888" s="41"/>
+      <c r="B888" s="42"/>
     </row>
     <row r="889">
-      <c r="B889" s="41"/>
+      <c r="B889" s="42"/>
     </row>
     <row r="890">
-      <c r="B890" s="41"/>
+      <c r="B890" s="42"/>
     </row>
     <row r="891">
-      <c r="B891" s="41"/>
+      <c r="B891" s="42"/>
     </row>
     <row r="892">
-      <c r="B892" s="41"/>
+      <c r="B892" s="42"/>
     </row>
     <row r="893">
-      <c r="B893" s="41"/>
+      <c r="B893" s="42"/>
     </row>
     <row r="894">
-      <c r="B894" s="41"/>
+      <c r="B894" s="42"/>
     </row>
     <row r="895">
-      <c r="B895" s="41"/>
+      <c r="B895" s="42"/>
     </row>
     <row r="896">
-      <c r="B896" s="41"/>
+      <c r="B896" s="42"/>
     </row>
     <row r="897">
-      <c r="B897" s="41"/>
+      <c r="B897" s="42"/>
     </row>
     <row r="898">
-      <c r="B898" s="41"/>
+      <c r="B898" s="42"/>
     </row>
     <row r="899">
-      <c r="B899" s="41"/>
+      <c r="B899" s="42"/>
     </row>
     <row r="900">
-      <c r="B900" s="41"/>
+      <c r="B900" s="42"/>
     </row>
     <row r="901">
-      <c r="B901" s="41"/>
+      <c r="B901" s="42"/>
     </row>
     <row r="902">
-      <c r="B902" s="41"/>
+      <c r="B902" s="42"/>
     </row>
     <row r="903">
-      <c r="B903" s="41"/>
+      <c r="B903" s="42"/>
     </row>
     <row r="904">
-      <c r="B904" s="41"/>
+      <c r="B904" s="42"/>
     </row>
     <row r="905">
-      <c r="B905" s="41"/>
+      <c r="B905" s="42"/>
     </row>
     <row r="906">
-      <c r="B906" s="41"/>
+      <c r="B906" s="42"/>
     </row>
     <row r="907">
-      <c r="B907" s="41"/>
+      <c r="B907" s="42"/>
     </row>
     <row r="908">
-      <c r="B908" s="41"/>
+      <c r="B908" s="42"/>
     </row>
     <row r="909">
-      <c r="B909" s="41"/>
+      <c r="B909" s="42"/>
     </row>
     <row r="910">
-      <c r="B910" s="41"/>
+      <c r="B910" s="42"/>
     </row>
     <row r="911">
-      <c r="B911" s="41"/>
+      <c r="B911" s="42"/>
     </row>
     <row r="912">
-      <c r="B912" s="41"/>
+      <c r="B912" s="42"/>
     </row>
     <row r="913">
-      <c r="B913" s="41"/>
+      <c r="B913" s="42"/>
     </row>
     <row r="914">
-      <c r="B914" s="41"/>
+      <c r="B914" s="42"/>
     </row>
     <row r="915">
-      <c r="B915" s="41"/>
+      <c r="B915" s="42"/>
     </row>
     <row r="916">
-      <c r="B916" s="41"/>
+      <c r="B916" s="42"/>
     </row>
     <row r="917">
-      <c r="B917" s="41"/>
+      <c r="B917" s="42"/>
     </row>
     <row r="918">
-      <c r="B918" s="41"/>
+      <c r="B918" s="42"/>
     </row>
     <row r="919">
-      <c r="B919" s="41"/>
+      <c r="B919" s="42"/>
     </row>
     <row r="920">
-      <c r="B920" s="41"/>
+      <c r="B920" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -31616,27 +31634,27 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>1151</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>1152</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="E1" s="27" t="s">
         <v>1153</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>1154</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>1155</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="26" t="s">
-        <v>1156</v>
-      </c>
-      <c r="I1" s="26" t="s">
+      <c r="H1" s="27" t="s">
+        <v>1154</v>
+      </c>
+      <c r="I1" s="27" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="2"/>
@@ -31658,40 +31676,669 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
     </row>
     <row r="3">
-      <c r="A3" s="44"/>
-      <c r="B3" s="45" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="46" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+    </row>
+    <row r="4">
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" s="3" t="s">
         <v>1157</v>
       </c>
+    </row>
+    <row r="10">
+      <c r="D10" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13">
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="C14" s="3" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" s="3" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="D20" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="D22" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="D23" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="D24" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="D25" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="D27" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="D28" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30">
+      <c r="C30" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="3"/>
+      <c r="D35" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="45"/>
+      <c r="B39" s="46" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="45"/>
+      <c r="S39" s="45"/>
+      <c r="T39" s="45"/>
+      <c r="U39" s="45"/>
+      <c r="V39" s="45"/>
+      <c r="W39" s="45"/>
+      <c r="X39" s="45"/>
+      <c r="Y39" s="45"/>
+      <c r="Z39" s="45"/>
+    </row>
+    <row r="40">
+      <c r="C40" s="3" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" s="3" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" s="3" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="45"/>
+      <c r="B44" s="46" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="45"/>
+      <c r="M44" s="45"/>
+      <c r="N44" s="45"/>
+      <c r="O44" s="45"/>
+      <c r="P44" s="45"/>
+      <c r="Q44" s="45"/>
+      <c r="R44" s="45"/>
+      <c r="S44" s="45"/>
+      <c r="T44" s="45"/>
+      <c r="U44" s="45"/>
+      <c r="V44" s="45"/>
+      <c r="W44" s="45"/>
+      <c r="X44" s="45"/>
+      <c r="Y44" s="45"/>
+      <c r="Z44" s="45"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="45"/>
+      <c r="B48" s="46" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="45"/>
+      <c r="L48" s="45"/>
+      <c r="M48" s="45"/>
+      <c r="N48" s="45"/>
+      <c r="O48" s="45"/>
+      <c r="P48" s="45"/>
+      <c r="Q48" s="45"/>
+      <c r="R48" s="45"/>
+      <c r="S48" s="45"/>
+      <c r="T48" s="45"/>
+      <c r="U48" s="45"/>
+      <c r="V48" s="45"/>
+      <c r="W48" s="45"/>
+      <c r="X48" s="45"/>
+      <c r="Y48" s="45"/>
+      <c r="Z48" s="45"/>
+    </row>
+    <row r="51">
+      <c r="B51" s="3"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="43" t="s">
+        <v>327</v>
+      </c>
+      <c r="B52" s="44"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="44"/>
+      <c r="M52" s="44"/>
+      <c r="N52" s="44"/>
+      <c r="O52" s="44"/>
+      <c r="P52" s="44"/>
+      <c r="Q52" s="44"/>
+      <c r="R52" s="44"/>
+      <c r="S52" s="44"/>
+      <c r="T52" s="44"/>
+      <c r="U52" s="44"/>
+      <c r="V52" s="44"/>
+      <c r="W52" s="44"/>
+      <c r="X52" s="44"/>
+      <c r="Y52" s="44"/>
+      <c r="Z52" s="44"/>
+    </row>
+    <row r="53">
+      <c r="B53" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="3" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="43" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B59" s="44"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="44"/>
+      <c r="J59" s="44"/>
+      <c r="K59" s="44"/>
+      <c r="L59" s="44"/>
+      <c r="M59" s="44"/>
+      <c r="N59" s="44"/>
+      <c r="O59" s="44"/>
+      <c r="P59" s="44"/>
+      <c r="Q59" s="44"/>
+      <c r="R59" s="44"/>
+      <c r="S59" s="44"/>
+      <c r="T59" s="44"/>
+      <c r="U59" s="44"/>
+      <c r="V59" s="44"/>
+      <c r="W59" s="44"/>
+      <c r="X59" s="44"/>
+      <c r="Y59" s="44"/>
+      <c r="Z59" s="44"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" s="3"/>
+      <c r="C61" s="3" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" s="3"/>
+      <c r="C67" s="3" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" s="3"/>
+      <c r="C70" s="3" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" s="3"/>
+      <c r="D71" s="3" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3" t="s">
+        <v>1174</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" s="3"/>
+      <c r="D74" s="3" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" s="3"/>
+      <c r="E75" s="3" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" s="3"/>
+      <c r="E76" s="3" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" s="3"/>
+      <c r="D77" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78">
+      <c r="B78" s="3"/>
+      <c r="C78" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79">
+      <c r="B79" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" s="3" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="B82" s="44"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="44"/>
+      <c r="G82" s="44"/>
+      <c r="H82" s="44"/>
+      <c r="I82" s="44"/>
+      <c r="J82" s="44"/>
+      <c r="K82" s="44"/>
+      <c r="L82" s="44"/>
+      <c r="M82" s="44"/>
+      <c r="N82" s="44"/>
+      <c r="O82" s="44"/>
+      <c r="P82" s="44"/>
+      <c r="Q82" s="44"/>
+      <c r="R82" s="44"/>
+      <c r="S82" s="44"/>
+      <c r="T82" s="44"/>
+      <c r="U82" s="44"/>
+      <c r="V82" s="44"/>
+      <c r="W82" s="44"/>
+      <c r="X82" s="44"/>
+      <c r="Y82" s="44"/>
+      <c r="Z82" s="44"/>
+    </row>
+    <row r="83">
+      <c r="B83" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="47" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="43" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B3" s="44"/>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
       <c r="E3" s="44"/>
@@ -31718,642 +32365,13 @@
       <c r="Z3" s="44"/>
     </row>
     <row r="4">
-      <c r="C4" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="D6" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="D8" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="D9" s="3" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="D10" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="C11" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13">
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14">
-      <c r="C14" s="3" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="C15" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="C16" s="3" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="C17" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="D18" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="D19" s="3" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="D20" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="C21" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="D22" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="D23" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="D24" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="D25" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="C26" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="D27" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="D28" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="C29" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30">
-      <c r="C30" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="3"/>
-      <c r="D31" s="3" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" s="3"/>
-      <c r="D32" s="3" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34">
-      <c r="B34" s="3"/>
-      <c r="D34" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" s="3"/>
-      <c r="D35" s="3" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="44"/>
-      <c r="B39" s="45" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="44"/>
-      <c r="O39" s="44"/>
-      <c r="P39" s="44"/>
-      <c r="Q39" s="44"/>
-      <c r="R39" s="44"/>
-      <c r="S39" s="44"/>
-      <c r="T39" s="44"/>
-      <c r="U39" s="44"/>
-      <c r="V39" s="44"/>
-      <c r="W39" s="44"/>
-      <c r="X39" s="44"/>
-      <c r="Y39" s="44"/>
-      <c r="Z39" s="44"/>
-    </row>
-    <row r="40">
-      <c r="C40" s="3" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="C41" s="3" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="C42" s="3" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="44"/>
-      <c r="B44" s="45" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="44"/>
-      <c r="L44" s="44"/>
-      <c r="M44" s="44"/>
-      <c r="N44" s="44"/>
-      <c r="O44" s="44"/>
-      <c r="P44" s="44"/>
-      <c r="Q44" s="44"/>
-      <c r="R44" s="44"/>
-      <c r="S44" s="44"/>
-      <c r="T44" s="44"/>
-      <c r="U44" s="44"/>
-      <c r="V44" s="44"/>
-      <c r="W44" s="44"/>
-      <c r="X44" s="44"/>
-      <c r="Y44" s="44"/>
-      <c r="Z44" s="44"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="44"/>
-      <c r="B48" s="45" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="44"/>
-      <c r="K48" s="44"/>
-      <c r="L48" s="44"/>
-      <c r="M48" s="44"/>
-      <c r="N48" s="44"/>
-      <c r="O48" s="44"/>
-      <c r="P48" s="44"/>
-      <c r="Q48" s="44"/>
-      <c r="R48" s="44"/>
-      <c r="S48" s="44"/>
-      <c r="T48" s="44"/>
-      <c r="U48" s="44"/>
-      <c r="V48" s="44"/>
-      <c r="W48" s="44"/>
-      <c r="X48" s="44"/>
-      <c r="Y48" s="44"/>
-      <c r="Z48" s="44"/>
-    </row>
-    <row r="51">
-      <c r="B51" s="3"/>
-      <c r="H51" s="3"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="42" t="s">
-        <v>327</v>
-      </c>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="43"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="43"/>
-      <c r="L52" s="43"/>
-      <c r="M52" s="43"/>
-      <c r="N52" s="43"/>
-      <c r="O52" s="43"/>
-      <c r="P52" s="43"/>
-      <c r="Q52" s="43"/>
-      <c r="R52" s="43"/>
-      <c r="S52" s="43"/>
-      <c r="T52" s="43"/>
-      <c r="U52" s="43"/>
-      <c r="V52" s="43"/>
-      <c r="W52" s="43"/>
-      <c r="X52" s="43"/>
-      <c r="Y52" s="43"/>
-      <c r="Z52" s="43"/>
-    </row>
-    <row r="53">
-      <c r="B53" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" s="3" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="42" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B59" s="43"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="43"/>
-      <c r="K59" s="43"/>
-      <c r="L59" s="43"/>
-      <c r="M59" s="43"/>
-      <c r="N59" s="43"/>
-      <c r="O59" s="43"/>
-      <c r="P59" s="43"/>
-      <c r="Q59" s="43"/>
-      <c r="R59" s="43"/>
-      <c r="S59" s="43"/>
-      <c r="T59" s="43"/>
-      <c r="U59" s="43"/>
-      <c r="V59" s="43"/>
-      <c r="W59" s="43"/>
-      <c r="X59" s="43"/>
-      <c r="Y59" s="43"/>
-      <c r="Z59" s="43"/>
-    </row>
-    <row r="60">
-      <c r="B60" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="B61" s="3"/>
-      <c r="C61" s="3" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="B62" s="3"/>
-      <c r="C62" s="3" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="B63" s="3"/>
-      <c r="C63" s="3" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="B64" s="3"/>
-      <c r="C64" s="3" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="B65" s="3"/>
-      <c r="C65" s="3" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="B66" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="B67" s="3"/>
-      <c r="C67" s="3" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="B70" s="3"/>
-      <c r="C70" s="3" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="B71" s="3"/>
-      <c r="D71" s="3" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="B72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3" t="s">
-        <v>1176</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="B73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3" t="s">
-        <v>1178</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="B74" s="3"/>
-      <c r="D74" s="3" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="B75" s="3"/>
-      <c r="E75" s="3" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="B76" s="3"/>
-      <c r="E76" s="3" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="B77" s="3"/>
-      <c r="D77" s="3" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E77" s="3"/>
-    </row>
-    <row r="78">
-      <c r="B78" s="3"/>
-      <c r="C78" s="3" t="s">
-        <v>1182</v>
-      </c>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-    </row>
-    <row r="79">
-      <c r="B79" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="C80" s="3" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="C81" s="3" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="B82" s="43"/>
-      <c r="C82" s="43"/>
-      <c r="D82" s="43"/>
-      <c r="E82" s="43"/>
-      <c r="F82" s="43"/>
-      <c r="G82" s="43"/>
-      <c r="H82" s="43"/>
-      <c r="I82" s="43"/>
-      <c r="J82" s="43"/>
-      <c r="K82" s="43"/>
-      <c r="L82" s="43"/>
-      <c r="M82" s="43"/>
-      <c r="N82" s="43"/>
-      <c r="O82" s="43"/>
-      <c r="P82" s="43"/>
-      <c r="Q82" s="43"/>
-      <c r="R82" s="43"/>
-      <c r="S82" s="43"/>
-      <c r="T82" s="43"/>
-      <c r="U82" s="43"/>
-      <c r="V82" s="43"/>
-      <c r="W82" s="43"/>
-      <c r="X82" s="43"/>
-      <c r="Y82" s="43"/>
-      <c r="Z82" s="43"/>
-    </row>
-    <row r="83">
-      <c r="B83" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="B84" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="B85" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="B86" s="3" t="s">
-        <v>417</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="46" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="42" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-    </row>
-    <row r="4">
       <c r="A4" s="3" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="6">
@@ -32368,65 +32386,65 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="42" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="43"/>
-      <c r="X10" s="43"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="43"/>
+      <c r="A10" s="43" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="44"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="14">
@@ -32434,15 +32452,15 @@
         <v>354</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="16">
@@ -32450,10 +32468,10 @@
         <v>353</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
   </sheetData>
